--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Critical_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="40" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -3206,10 +3206,10 @@
     <t>Brand Name</t>
   </si>
   <si>
-    <t>103558001</t>
-  </si>
-  <si>
-    <t>Radisson Temple Bay</t>
+    <t>103556001</t>
+  </si>
+  <si>
+    <t>Radisson GRT</t>
   </si>
 </sst>
 </file>
@@ -11073,7 +11073,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11094,7 +11094,7 @@
         <v>1042</v>
       </c>
       <c r="B2">
-        <v>103558</v>
+        <v>103556</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11119,7 +11119,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11141,7 +11141,7 @@
         <v>1042</v>
       </c>
       <c r="B2">
-        <v>103558</v>
+        <v>103556</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11415,7 +11415,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="44"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -56,8 +56,9 @@
     <sheet name="Credit Note With PO" sheetId="42" r:id="rId42"/>
     <sheet name="BlockGlobalClient" sheetId="47" r:id="rId43"/>
     <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId44"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId45"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId46"/>
+    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId45"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId46"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId47"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="1051">
   <si>
     <t>Description</t>
   </si>
@@ -3210,6 +3211,18 @@
   </si>
   <si>
     <t>Radisson GRT</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>CompanyVendor Number</t>
+  </si>
+  <si>
+    <t>CompanyVendor Name</t>
+  </si>
+  <si>
+    <t>AARUN AASHIYANA</t>
   </si>
 </sst>
 </file>
@@ -3476,7 +3489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3676,6 +3689,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11118,14 +11134,14 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11175,6 +11191,69 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B2">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B3">
+        <v>107444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -11407,7 +11486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="44"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -3978,8 +3978,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4001,7 +4001,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>379</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11197,7 +11197,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11494,7 +11494,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Critical_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Critical_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1054">
   <si>
     <t>Description</t>
   </si>
@@ -3223,6 +3223,15 @@
   </si>
   <si>
     <t>AARUN AASHIYANA</t>
+  </si>
+  <si>
+    <t>Blocked Global Brand No</t>
+  </si>
+  <si>
+    <t>Blocked Global Client No</t>
+  </si>
+  <si>
+    <t>103556</t>
   </si>
 </sst>
 </file>
@@ -5502,7 +5511,7 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FK10"/>
+  <dimension ref="A1:FK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -5742,6 +5751,22 @@
         <v>1033</v>
       </c>
     </row>
+    <row r="11" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>1053</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Critical_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Critical_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,9 +56,14 @@
     <sheet name="Credit Note With PO" sheetId="42" r:id="rId42"/>
     <sheet name="BlockGlobalClient" sheetId="47" r:id="rId43"/>
     <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId44"/>
-    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId45"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId46"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId47"/>
+    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId45"/>
+    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId46"/>
+    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId47"/>
+    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId48"/>
+    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId49"/>
+    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId50"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId51"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId52"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -70,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1065">
   <si>
     <t>Description</t>
   </si>
@@ -3232,13 +3237,46 @@
   </si>
   <si>
     <t>103556</t>
+  </si>
+  <si>
+    <t>103132</t>
+  </si>
+  <si>
+    <t>103132002</t>
+  </si>
+  <si>
+    <t>Times Of India</t>
+  </si>
+  <si>
+    <t>Product Number</t>
+  </si>
+  <si>
+    <t>103132002001</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>NewCamlinProduct</t>
+  </si>
+  <si>
+    <t>103115001001</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>30 SECONDS OF FAME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3283,6 +3321,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3498,7 +3543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3700,6 +3745,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4010,7 +4059,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>1010</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11228,48 +11277,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="B1" s="103">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B2">
-        <v>1707</v>
+        <v>1042</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B3">
-        <v>107444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B4" s="105" t="s">
-        <v>1050</v>
+        <v>1043</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>1044</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
@@ -11281,229 +11330,43 @@
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="39">
-        <v>1707</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="97" t="s">
-        <v>964</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="97" t="s">
-        <v>965</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="97" t="s">
-        <v>966</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="97" t="s">
-        <v>967</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="97" t="s">
-        <v>379</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="97" t="s">
-        <v>968</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="97" t="s">
-        <v>969</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="97" t="s">
-        <v>970</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>971</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="98" t="s">
-        <v>972</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>397</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11514,138 +11377,184 @@
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="100" t="s">
-        <v>182</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="103">
+        <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>1006</v>
+      <c r="A2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B2" s="1">
+        <v>103115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>1007</v>
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>1008</v>
+      <c r="A4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="98" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" s="101" t="s">
-        <v>1019</v>
+      <c r="A5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="103">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B2" s="107">
+        <v>103132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B2">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3">
+        <v>107433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -11876,6 +11785,442 @@
       <c r="C19" s="77"/>
       <c r="D19" s="77"/>
       <c r="E19" s="77"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B2">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B3">
+        <v>107444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="39">
+        <v>1707</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="97" t="s">
+        <v>964</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>965</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>966</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>967</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>968</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>969</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>970</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>971</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>972</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="100" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="98" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>1019</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="1078">
   <si>
     <t>Description</t>
   </si>
@@ -1241,12 +1241,6 @@
     <t>ZZ1707_RB101_TM-CP</t>
   </si>
   <si>
-    <t>E1003</t>
-  </si>
-  <si>
-    <t>Adpart</t>
-  </si>
-  <si>
     <t>Client Billable Time</t>
   </si>
   <si>
@@ -3194,9 +3188,6 @@
     <t>1707105341</t>
   </si>
   <si>
-    <t>B21707105328</t>
-  </si>
-  <si>
     <t>Z11707105328</t>
   </si>
   <si>
@@ -3270,6 +3261,54 @@
   </si>
   <si>
     <t>30 SECONDS OF FAME</t>
+  </si>
+  <si>
+    <t>1707-Wunderman Thompson Mumbai</t>
+  </si>
+  <si>
+    <t>1712-GTB A Unit of Hindustan Thompson Advertising Limited</t>
+  </si>
+  <si>
+    <t>RB108</t>
+  </si>
+  <si>
+    <t>RB108-Design</t>
+  </si>
+  <si>
+    <t>D112</t>
+  </si>
+  <si>
+    <t>D112-Design</t>
+  </si>
+  <si>
+    <t>B127</t>
+  </si>
+  <si>
+    <t>B127-Studio</t>
+  </si>
+  <si>
+    <t>RB108_TM-CP</t>
+  </si>
+  <si>
+    <t>Design-T&amp;M - CP</t>
+  </si>
+  <si>
+    <t>103777002001</t>
+  </si>
+  <si>
+    <t>1712_TestAutomationJob</t>
+  </si>
+  <si>
+    <t>ZZ1712_RB102_TM-CP</t>
+  </si>
+  <si>
+    <t>E1024</t>
+  </si>
+  <si>
+    <t>Banners-Design only</t>
+  </si>
+  <si>
+    <t>1712INVOICE</t>
   </si>
 </sst>
 </file>
@@ -3543,7 +3582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3608,9 +3647,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4036,7 +4072,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4047,26 +4083,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="75">
+      <c r="B1" s="74">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="95" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="72" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4105,26 +4141,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="66"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4134,7 +4170,7 @@
       <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -4148,7 +4184,7 @@
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -4162,11 +4198,11 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -4174,10 +4210,10 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="67"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -4191,11 +4227,11 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4206,7 +4242,7 @@
       <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -4220,11 +4256,11 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="102" t="s">
-        <v>1034</v>
+      <c r="B9" s="101" t="s">
+        <v>1032</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4234,7 +4270,7 @@
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -4249,7 +4285,7 @@
       <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -4264,7 +4300,7 @@
       <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -4279,7 +4315,7 @@
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="56" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -4291,25 +4327,25 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="68"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="B14" s="45" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="56" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -4323,26 +4359,26 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="65" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="B16" s="64" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="56" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -4350,14 +4386,14 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="56" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -4365,10 +4401,10 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="51"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="56" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -4382,22 +4418,22 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="59" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
+      <c r="B20" s="58" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="56" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -4412,11 +4448,11 @@
       <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="59" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -4454,55 +4490,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52">
+      <c r="B1" s="51">
         <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="52">
         <v>1307</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="52">
         <v>130710080</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -4510,7 +4546,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="52" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -4518,10 +4554,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="52">
         <v>1307</v>
       </c>
     </row>
@@ -4556,23 +4592,23 @@
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="26"/>
       <c r="E1" s="31"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4620,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="15"/>
@@ -4629,7 +4665,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="67"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -4651,7 +4687,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4682,8 +4718,8 @@
       <c r="A9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="102" t="s">
-        <v>1034</v>
+      <c r="B9" s="101" t="s">
+        <v>1032</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4756,23 +4792,23 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="68"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>1024</v>
+      <c r="B14" s="45" t="s">
+        <v>1022</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
@@ -4794,24 +4830,24 @@
       <c r="A16" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="65" t="s">
-        <v>1025</v>
+      <c r="B16" s="64" t="s">
+        <v>1023</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -4820,14 +4856,14 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="51"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -4836,7 +4872,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="51"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
@@ -4858,17 +4894,17 @@
       <c r="A20" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="59" t="s">
-        <v>1027</v>
+      <c r="B20" s="58" t="s">
+        <v>1025</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
@@ -4891,7 +4927,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
@@ -4923,7 +4959,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -4939,7 +4975,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -4990,7 +5026,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -4998,7 +5034,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>218</v>
       </c>
       <c r="B2" s="16">
@@ -5006,7 +5042,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -5014,7 +5050,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -5022,7 +5058,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -5030,7 +5066,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5038,7 +5074,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -5046,7 +5082,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -5054,7 +5090,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -5062,7 +5098,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -5070,7 +5106,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -5078,7 +5114,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -5086,7 +5122,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="90" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -5120,62 +5156,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="52">
+      <c r="C1" s="51">
         <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="52">
         <v>1307</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="52">
         <v>1307</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>375</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -5186,7 +5222,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -5197,13 +5233,13 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="52">
         <v>1307</v>
       </c>
     </row>
@@ -5365,22 +5401,22 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>1036</v>
+      <c r="B2" s="61" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>249</v>
       </c>
     </row>
@@ -5408,7 +5444,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31">
@@ -5458,7 +5494,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>256</v>
       </c>
       <c r="B1" t="s">
@@ -5521,7 +5557,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31">
@@ -5562,7 +5598,7 @@
   </sheetPr>
   <dimension ref="A1:FK12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -5752,13 +5788,13 @@
       <c r="A2" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="61"/>
+      <c r="C2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -5777,43 +5813,43 @@
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="8" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="12" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
@@ -5840,31 +5876,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>250</v>
       </c>
       <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>394</v>
+      <c r="B4" s="61" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -5891,31 +5927,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>250</v>
       </c>
       <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>394</v>
+      <c r="B4" s="61" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -6005,10 +6041,10 @@
         <v>236</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>146</v>
@@ -6023,10 +6059,10 @@
         <v>237</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>150</v>
@@ -6041,10 +6077,10 @@
         <v>238</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="V1" s="27" t="s">
         <v>154</v>
@@ -6059,10 +6095,10 @@
         <v>239</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>158</v>
@@ -6077,10 +6113,10 @@
         <v>240</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="AH1" s="27" t="s">
         <v>162</v>
@@ -6095,10 +6131,10 @@
         <v>241</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="AN1" s="27" t="s">
         <v>166</v>
@@ -6113,10 +6149,10 @@
         <v>242</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AS1" s="27" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AT1" s="27" t="s">
         <v>170</v>
@@ -6131,10 +6167,10 @@
         <v>243</v>
       </c>
       <c r="AX1" s="27" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="AY1" s="27" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="AZ1" s="27" t="s">
         <v>174</v>
@@ -6149,10 +6185,10 @@
         <v>244</v>
       </c>
       <c r="BD1" s="27" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="BE1" s="27" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="BF1" s="27" t="s">
         <v>178</v>
@@ -6167,25 +6203,25 @@
         <v>245</v>
       </c>
       <c r="BJ1" s="27" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="BK1" s="27" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+      <c r="A2" s="60">
         <v>1707</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>395</v>
-      </c>
-      <c r="C2" s="61"/>
+      <c r="B2" s="60" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" s="60"/>
       <c r="D2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F2">
         <v>25</v>
@@ -6193,11 +6229,11 @@
       <c r="G2">
         <v>500</v>
       </c>
-      <c r="H2" s="61" t="s">
-        <v>975</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>975</v>
+      <c r="H2" s="60" t="s">
+        <v>973</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>973</v>
       </c>
     </row>
   </sheetData>
@@ -6211,10 +6247,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:BU2"/>
+  <dimension ref="A1:BU3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6287,13 +6323,13 @@
         <v>236</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>146</v>
@@ -6308,13 +6344,13 @@
         <v>237</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="R1" s="27" t="s">
         <v>150</v>
@@ -6329,13 +6365,13 @@
         <v>238</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="Y1" s="27" t="s">
         <v>154</v>
@@ -6350,13 +6386,13 @@
         <v>239</v>
       </c>
       <c r="AC1" s="27" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AD1" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="AF1" s="27" t="s">
         <v>158</v>
@@ -6371,13 +6407,13 @@
         <v>240</v>
       </c>
       <c r="AJ1" s="27" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="AK1" s="27" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="AM1" s="27" t="s">
         <v>162</v>
@@ -6392,13 +6428,13 @@
         <v>241</v>
       </c>
       <c r="AQ1" s="27" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="AS1" s="27" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="AT1" s="27" t="s">
         <v>166</v>
@@ -6413,13 +6449,13 @@
         <v>242</v>
       </c>
       <c r="AX1" s="27" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AY1" s="27" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AZ1" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="BA1" s="27" t="s">
         <v>170</v>
@@ -6434,13 +6470,13 @@
         <v>243</v>
       </c>
       <c r="BE1" s="27" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="BF1" s="27" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="BG1" s="27" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="BH1" s="27" t="s">
         <v>174</v>
@@ -6455,13 +6491,13 @@
         <v>244</v>
       </c>
       <c r="BL1" s="27" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="BM1" s="27" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="BN1" s="27" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="BO1" s="27" t="s">
         <v>178</v>
@@ -6476,30 +6512,30 @@
         <v>245</v>
       </c>
       <c r="BS1" s="27" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="BT1" s="27" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="BU1" s="27" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+      <c r="A2" s="60">
         <v>1707</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>395</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>1036</v>
+      <c r="B2" s="60" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>1034</v>
       </c>
       <c r="D2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F2">
         <v>25</v>
@@ -6507,14 +6543,43 @@
       <c r="G2">
         <v>500</v>
       </c>
-      <c r="H2" s="61" t="s">
-        <v>975</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>975</v>
-      </c>
-      <c r="J2" s="61" t="s">
-        <v>995</v>
+      <c r="H2" s="60" t="s">
+        <v>973</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>973</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1712</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>973</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>973</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -6541,19 +6606,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>1037</v>
+      <c r="B2" s="61" t="s">
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
@@ -6580,19 +6645,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>1038</v>
+      <c r="B2" s="61" t="s">
+        <v>1036</v>
       </c>
     </row>
   </sheetData>
@@ -6662,7 +6727,7 @@
       <c r="A6" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="92">
         <v>43783</v>
       </c>
     </row>
@@ -6716,7 +6781,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="30">
@@ -6787,7 +6852,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -6819,18 +6884,18 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="80" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="80" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6858,50 +6923,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="81" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="88" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="80" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="81" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="82" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6929,15 +6994,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B2" s="30">
         <v>83.62</v>
@@ -6945,7 +7010,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B3" s="30">
         <v>1.39</v>
@@ -6953,7 +7018,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B4" s="30">
         <v>4.72</v>
@@ -6961,7 +7026,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B5" s="30">
         <v>323363078.55000001</v>
@@ -6969,7 +7034,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B6" s="30">
         <v>323325.90999999997</v>
@@ -6977,7 +7042,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B7" s="30">
         <v>1.1100000000000001</v>
@@ -6993,7 +7058,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B9" s="30">
         <v>4.55</v>
@@ -7001,7 +7066,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B10" s="30">
         <v>135.61000000000001</v>
@@ -7009,7 +7074,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B11" s="30">
         <v>589.11</v>
@@ -7017,7 +7082,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B12" s="30">
         <v>2.19</v>
@@ -7025,7 +7090,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B13" s="30">
         <v>430.35</v>
@@ -7033,7 +7098,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B14" s="30">
         <v>53.58</v>
@@ -7041,170 +7106,170 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7212,879 +7277,879 @@
         <v>117</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
   </sheetData>
@@ -8111,50 +8176,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="83" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="85" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="86" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="87" t="s">
         <v>283</v>
       </c>
     </row>
@@ -8169,7 +8234,7 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -8195,7 +8260,7 @@
         <v>268</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>258</v>
@@ -8238,17 +8303,34 @@
       <c r="B2">
         <v>1707105342</v>
       </c>
-      <c r="C2" s="61" t="s">
-        <v>396</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>396</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>1039</v>
+      <c r="C2" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>1038</v>
       </c>
       <c r="F2" t="s">
-        <v>1039</v>
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1712</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1077</v>
       </c>
     </row>
   </sheetData>
@@ -8262,10 +8344,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8273,20 +8355,23 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1">
         <v>1707</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="C1">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>1040</v>
+      <c r="B2" s="60" t="s">
+        <v>1037</v>
       </c>
     </row>
   </sheetData>
@@ -8312,7 +8397,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1">
@@ -8320,11 +8405,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>1041</v>
+      <c r="B2" s="60" t="s">
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -8370,7 +8455,7 @@
       <c r="A3" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>376</v>
       </c>
     </row>
@@ -8378,7 +8463,7 @@
       <c r="A4" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8407,10 +8492,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>185</v>
       </c>
     </row>
@@ -8487,7 +8572,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>256</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -8513,7 +8598,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>185</v>
       </c>
       <c r="B2" s="30">
@@ -8606,7 +8691,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>256</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -8638,7 +8723,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>185</v>
       </c>
       <c r="B2" s="30">
@@ -8695,7 +8780,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>256</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -8727,7 +8812,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -8801,28 +8886,28 @@
         <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B6" t="s">
         <v>347</v>
@@ -8830,47 +8915,47 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s">
         <v>347</v>
@@ -8878,183 +8963,183 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B23" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B26" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B28" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B32" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B33" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B34" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B35" t="s">
         <v>347</v>
@@ -9062,31 +9147,31 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B37" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B38" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B39" t="s">
         <v>347</v>
@@ -9094,7 +9179,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B40" t="s">
         <v>347</v>
@@ -9102,71 +9187,71 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B41" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B42" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B43" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B44" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B45" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B46" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B47" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B48" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B49" t="s">
         <v>347</v>
@@ -9174,191 +9259,191 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B51" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B52" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B53" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B54" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B55" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B56" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B57" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B58" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B59" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B60" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B61" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B62" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B63" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B64" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B65" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B66" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B67" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B68" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B69" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B70" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B71" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B72" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B73" t="s">
         <v>347</v>
@@ -9366,15 +9451,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B74" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B75" t="s">
         <v>347</v>
@@ -9382,183 +9467,183 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B76" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B77" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B78" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B79" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B80" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B81" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B82" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B83" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B84" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B85" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B86" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B87" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B88" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B89" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B90" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B91" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B92" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B93" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B94" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B95" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B96" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B97" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B98" t="s">
         <v>347</v>
@@ -9566,359 +9651,359 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B99" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B100" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B101" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B102" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B103" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B104" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B105" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B106" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B107" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B108" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B109" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B110" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B111" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B112" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B113" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B114" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B115" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B116" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B117" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B118" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B119" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B120" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B121" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B122" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B123" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B124" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B125" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B126" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B127" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B128" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B129" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B130" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B131" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B132" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B133" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B134" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B135" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B136" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B137" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B138" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B139" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B140" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B141" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B142" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B143" t="s">
         <v>347</v>
@@ -9926,47 +10011,47 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B144" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B145" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B146" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B147" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B148" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B149" t="s">
         <v>347</v>
@@ -9974,159 +10059,159 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B150" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B151" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B152" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B153" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B154" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B155" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B156" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B157" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B158" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B159" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B160" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B161" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B162" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B163" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B164" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B165" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B166" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B167" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B168" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B169" t="s">
         <v>347</v>
@@ -10134,47 +10219,47 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B170" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B171" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B172" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B173" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B174" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B175" t="s">
         <v>347</v>
@@ -10182,15 +10267,15 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B176" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B177" t="s">
         <v>347</v>
@@ -10198,63 +10283,63 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B178" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B179" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B180" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B181" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B182" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B183" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B184" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B185" t="s">
         <v>347</v>
@@ -10262,47 +10347,47 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B186" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B187" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B188" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B189" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B190" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B191" t="s">
         <v>347</v>
@@ -10310,135 +10395,135 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B192" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B193" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B194" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B195" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B196" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B197" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B198" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B199" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B200" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B201" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B202" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B203" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B204" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B205" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B206" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B207" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B208" t="s">
         <v>347</v>
@@ -10446,167 +10531,167 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B209" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B210" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B211" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B212" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B213" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B214" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B215" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B216" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B217" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B218" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B219" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B220" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B221" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B222" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B223" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B224" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B225" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B226" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B227" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B228" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B229" t="s">
         <v>347</v>
@@ -10614,71 +10699,71 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B230" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B231" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B232" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B233" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B234" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B235" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B236" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B237" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B238" t="s">
         <v>347</v>
@@ -10686,47 +10771,47 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B239" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B240" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B241" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B242" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B243" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B244" t="s">
         <v>347</v>
@@ -10734,47 +10819,47 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B245" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B246" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B247" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B248" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B249" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B250" t="s">
         <v>347</v>
@@ -10782,31 +10867,31 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B251" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B252" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B253" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B254" t="s">
         <v>347</v>
@@ -10837,10 +10922,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>363</v>
       </c>
     </row>
@@ -10916,10 +11001,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>363</v>
       </c>
     </row>
@@ -11124,16 +11209,16 @@
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="94">
+      <c r="B2" s="93">
         <v>1319</v>
       </c>
-      <c r="C2" s="95">
+      <c r="C2" s="94">
         <v>131915</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="60">
         <v>1319200043</v>
       </c>
       <c r="E2" t="s">
@@ -11163,7 +11248,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11172,16 +11257,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="103">
+      <c r="B1" s="102">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B2">
         <v>103556</v>
@@ -11192,7 +11277,7 @@
         <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -11209,7 +11294,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11219,16 +11304,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="103">
+      <c r="B1" s="102">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B2">
         <v>103556</v>
@@ -11239,23 +11324,23 @@
         <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>1045</v>
+        <v>1040</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B5" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -11272,7 +11357,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11282,43 +11367,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="103">
+      <c r="B1" s="102">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B2" s="106" t="s">
-        <v>1054</v>
+        <v>1039</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="61" t="s">
-        <v>397</v>
+      <c r="B3" s="60" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>1055</v>
+        <v>1040</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B5" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
   </sheetData>
@@ -11345,27 +11430,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>393</v>
+      <c r="B1" s="51" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B2" s="106" t="s">
-        <v>1054</v>
+        <v>1039</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="61" t="s">
-        <v>397</v>
+      <c r="B3" s="60" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -11392,16 +11477,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="103">
+      <c r="B1" s="102">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B2" s="1">
         <v>103115</v>
@@ -11412,23 +11497,23 @@
         <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>1061</v>
+        <v>1040</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B5" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -11455,18 +11540,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="103">
+      <c r="B1" s="102">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B2" s="107">
+        <v>1039</v>
+      </c>
+      <c r="B2" s="106">
         <v>103132</v>
       </c>
     </row>
@@ -11475,23 +11560,23 @@
         <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>1058</v>
+        <v>1054</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B5" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -11518,7 +11603,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>256</v>
       </c>
       <c r="B1">
@@ -11527,7 +11612,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B2">
         <v>1707</v>
@@ -11543,10 +11628,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B4" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11554,7 +11639,7 @@
         <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -11570,15 +11655,15 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" style="30" customWidth="1"/>
     <col min="5" max="5" width="45.42578125" style="1" customWidth="1"/>
   </cols>
@@ -11590,8 +11675,10 @@
       <c r="B1" s="2">
         <v>1707</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="69"/>
+      <c r="C1" s="2">
+        <v>1712</v>
+      </c>
+      <c r="D1" s="68"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -11601,18 +11688,22 @@
       <c r="B2" s="7">
         <v>1707</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7">
+        <v>1712</v>
+      </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="70"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C3" s="7"/>
+        <v>1062</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1063</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
@@ -11623,7 +11714,9 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
@@ -11634,7 +11727,9 @@
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>1064</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
@@ -11645,18 +11740,22 @@
       <c r="B6" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>1065</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
@@ -11667,7 +11766,9 @@
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="32"/>
       <c r="E8" s="8"/>
     </row>
@@ -11678,7 +11779,9 @@
       <c r="B9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>1066</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
@@ -11689,7 +11792,9 @@
       <c r="B10" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="D10" s="32"/>
       <c r="E10" s="8"/>
     </row>
@@ -11700,7 +11805,9 @@
       <c r="B11" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>1068</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
@@ -11711,7 +11818,9 @@
       <c r="B12" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>1069</v>
+      </c>
       <c r="D12" s="32"/>
       <c r="E12" s="8"/>
     </row>
@@ -11722,7 +11831,9 @@
       <c r="B13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>1070</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
@@ -11733,7 +11844,9 @@
       <c r="B14" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>1071</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="32"/>
     </row>
@@ -11744,9 +11857,11 @@
       <c r="B15" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>1072</v>
+      </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="71"/>
+      <c r="E15" s="70"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -11755,7 +11870,9 @@
       <c r="B16" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="32" t="s">
+        <v>1073</v>
+      </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
     </row>
@@ -11763,28 +11880,28 @@
       <c r="A17" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11807,7 +11924,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>256</v>
       </c>
       <c r="B1">
@@ -11816,7 +11933,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B2">
         <v>1707</v>
@@ -11824,7 +11941,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B3">
         <v>107444</v>
@@ -11832,10 +11949,10 @@
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B4" s="105" t="s">
-        <v>1050</v>
+        <v>1046</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11843,7 +11960,7 @@
         <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -11871,213 +11988,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="39">
+      <c r="B1" s="38">
         <v>1707</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="26"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="96" t="s">
+        <v>962</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>963</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>964</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="97" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="96" t="s">
         <v>965</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="97" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="96" t="s">
         <v>966</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="97" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="96" t="s">
         <v>967</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="97" t="s">
-        <v>379</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="97" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="96" t="s">
         <v>968</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="97" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="96" t="s">
         <v>969</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="97" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="97" t="s">
         <v>970</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>971</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="98" t="s">
-        <v>972</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12103,123 +12220,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="99" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="35" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="35" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="35" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="35" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="35" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="96" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="35" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="35" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="96" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="35" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="96" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" s="35" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="96" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="35" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" s="35" t="s">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="100" t="s">
         <v>1017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="98" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" s="101" t="s">
-        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -12241,14 +12358,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="50" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31">
@@ -12259,7 +12376,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15">
@@ -12270,7 +12387,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -12281,14 +12398,14 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>210</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -12299,7 +12416,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -12310,40 +12427,40 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -12354,18 +12471,18 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -12376,18 +12493,18 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="45" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -12398,10 +12515,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="48" t="s">
         <v>131</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -12409,24 +12526,24 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="48" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="49" t="s">
         <v>213</v>
       </c>
     </row>
@@ -12441,10 +12558,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12509,10 +12626,10 @@
         <v>145</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>146</v>
@@ -12527,10 +12644,10 @@
         <v>149</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>150</v>
@@ -12545,10 +12662,10 @@
         <v>153</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="V1" s="27" t="s">
         <v>154</v>
@@ -12563,10 +12680,10 @@
         <v>157</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>158</v>
@@ -12581,10 +12698,10 @@
         <v>161</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AH1" s="27" t="s">
         <v>162</v>
@@ -12599,10 +12716,10 @@
         <v>165</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AN1" s="27" t="s">
         <v>166</v>
@@ -12617,10 +12734,10 @@
         <v>169</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AS1" s="27" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AT1" s="27" t="s">
         <v>170</v>
@@ -12635,10 +12752,10 @@
         <v>173</v>
       </c>
       <c r="AX1" s="27" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AY1" s="27" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AZ1" s="27" t="s">
         <v>174</v>
@@ -12653,10 +12770,10 @@
         <v>177</v>
       </c>
       <c r="BD1" s="27" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="BE1" s="27" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="BF1" s="27" t="s">
         <v>178</v>
@@ -12671,27 +12788,27 @@
         <v>181</v>
       </c>
       <c r="BJ1" s="27" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="BK1" s="27" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1707</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="60" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C2" s="60" t="s">
         <v>387</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -12706,16 +12823,16 @@
         <v>998312</v>
       </c>
       <c r="J2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M2">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="N2">
         <v>998312</v>
@@ -12723,23 +12840,37 @@
       <c r="O2">
         <v>998312</v>
       </c>
-      <c r="P2" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>392</v>
-      </c>
-      <c r="R2">
-        <v>25</v>
-      </c>
-      <c r="S2">
-        <v>500</v>
-      </c>
-      <c r="T2">
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1712</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
         <v>998312</v>
       </c>
-      <c r="U2">
+      <c r="I3">
         <v>998312</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1076</v>
       </c>
     </row>
   </sheetData>
@@ -12942,7 +13073,7 @@
       <c r="A2">
         <v>1307</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>246</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -12980,7 +13111,7 @@
       <c r="A3">
         <v>1284</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>222</v>
       </c>
       <c r="C3" t="s">
@@ -13018,7 +13149,7 @@
       <c r="A4">
         <v>1205</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>229</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -13068,21 +13199,21 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="48" activeTab="50"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -62,8 +62,10 @@
     <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId48"/>
     <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId49"/>
     <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId50"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId51"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId52"/>
+    <sheet name="AmendGlobalClient" sheetId="55" r:id="rId51"/>
+    <sheet name="AmendGlobalBrand" sheetId="56" r:id="rId52"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId53"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId54"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1086">
   <si>
     <t>Description</t>
   </si>
@@ -3309,6 +3311,30 @@
   </si>
   <si>
     <t>1712INVOICE</t>
+  </si>
+  <si>
+    <t>Address_1</t>
+  </si>
+  <si>
+    <t>Address_2</t>
+  </si>
+  <si>
+    <t>Address_3</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>103557001</t>
+  </si>
+  <si>
+    <t>Radisson Bengaluru Citi Centre</t>
+  </si>
+  <si>
+    <t>No.2  Ward No.81</t>
   </si>
 </sst>
 </file>
@@ -5598,7 +5624,7 @@
   </sheetPr>
   <dimension ref="A1:FK12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -11911,6 +11937,9 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11970,6 +11999,171 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="102">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B2">
+        <v>103557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="102">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B2">
+        <v>103557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -12202,7 +12396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="48" activeTab="50"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="1036">
   <si>
     <t>Description</t>
   </si>
@@ -130,9 +130,6 @@
     <t>User Type</t>
   </si>
   <si>
-    <t>RB109</t>
-  </si>
-  <si>
     <t>Validate BusinessUnit</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>RN101-Client Non Billable,RN102-New Business - Non Billable</t>
   </si>
   <si>
-    <t>B103</t>
-  </si>
-  <si>
     <t>FullName</t>
   </si>
   <si>
@@ -193,9 +187,6 @@
     <t>EmployeeDepartment_Name</t>
   </si>
   <si>
-    <t>D101</t>
-  </si>
-  <si>
     <t>EmployeeCostCentre_Name</t>
   </si>
   <si>
@@ -274,21 +265,9 @@
     <t>1307-Sudler China(MDS)</t>
   </si>
   <si>
-    <t>RB106-Consulting,RB109-Digital,RB110-Events,RB117-Recharges,RB119-Retainer</t>
-  </si>
-  <si>
-    <t>D100-Account Management,D111-Creative,D113-Digital,D116-Finance,D117-Human Resources,D120-Management,D125-Planning,D142-Health</t>
-  </si>
-  <si>
     <t>D111</t>
   </si>
   <si>
-    <t>B100-Team 0,B101-Team 1,B102-Team 2,B103-Team 3,B104-Team 4,B105-Team 5,B106-Team 6,B107-Team 7,B108-Team 8,B109-Team 9,B110-Team 10,B150-Market Access,B160-Beijing office,B170-Planning,B180-Medical,B190-Creative,B200-Digital,B210-Finance,B220-HR &amp; Admin</t>
-  </si>
-  <si>
-    <t>RB109_FP-CP</t>
-  </si>
-  <si>
     <t>T1001</t>
   </si>
   <si>
@@ -472,33 +451,9 @@
     <t>1307 Senior Finance</t>
   </si>
   <si>
-    <t>Digital-T&amp;M - CP,Digital-Fixed Price - CP</t>
-  </si>
-  <si>
     <t>7.5</t>
   </si>
   <si>
-    <t>1201-AKQA (Shanghai) Ltd</t>
-  </si>
-  <si>
-    <t>RB119</t>
-  </si>
-  <si>
-    <t>RB103-Branding,RB105-Campaign,RB109-Digital,RB113-New Business - Billable,RB117-Recharges,RB118-Research,RB119-Retainer,RB120-Social Media,RB136-Content Strategy &amp; Production,RB138-Experiential Marketing,RB142-Website</t>
-  </si>
-  <si>
-    <t>D100-Account Management,D101-Administration,D111-Creative,D116-Finance,D118-Information Technology,D128-Project Management,D133-Strategy,D137-Technology,D169-User Experience</t>
-  </si>
-  <si>
-    <t>B100-Cross Client,B101-Team 1,B102-Team 2,B103-Business Development,B104-Non Billable</t>
-  </si>
-  <si>
-    <t>RB119_RT-CP</t>
-  </si>
-  <si>
-    <t>Retainer-Retainer</t>
-  </si>
-  <si>
     <t>1201</t>
   </si>
   <si>
@@ -712,15 +667,9 @@
     <t>Job_No</t>
   </si>
   <si>
-    <t>TestAutomation Sample</t>
-  </si>
-  <si>
     <t>Job_StartDate</t>
   </si>
   <si>
-    <t>10/1/2019</t>
-  </si>
-  <si>
     <t>Job Number</t>
   </si>
   <si>
@@ -1222,18 +1171,12 @@
     <t>1707-J. Walter Thompson Mumbai</t>
   </si>
   <si>
-    <t>RB109-Digital,RB110-Events,RB117-Recharges,RB119-Retainer</t>
-  </si>
-  <si>
     <t>D100-Account Management,D111-Creative,D113-Digital,D116-Finance,D117-Human Resources,D120-Management,D125-Planning</t>
   </si>
   <si>
     <t>B111-Digital</t>
   </si>
   <si>
-    <t>103132003001</t>
-  </si>
-  <si>
     <t>1707_TestAutomationJob</t>
   </si>
   <si>
@@ -1261,9 +1204,6 @@
     <t>110302</t>
   </si>
   <si>
-    <t>02/03/2020</t>
-  </si>
-  <si>
     <t>INR</t>
   </si>
   <si>
@@ -2992,102 +2932,12 @@
     <t>1707 Senior Finance (TSTAUTO)</t>
   </si>
   <si>
-    <t>OutwardHSN_1</t>
-  </si>
-  <si>
-    <t>InwardHSN_1</t>
-  </si>
-  <si>
     <t>998312</t>
   </si>
   <si>
-    <t>OutwardHSN_2</t>
-  </si>
-  <si>
-    <t>InwardHSN_2</t>
-  </si>
-  <si>
-    <t>OutwardHSN_3</t>
-  </si>
-  <si>
-    <t>InwardHSN_3</t>
-  </si>
-  <si>
-    <t>OutwardHSN_4</t>
-  </si>
-  <si>
-    <t>InwardHSN_4</t>
-  </si>
-  <si>
-    <t>OutwardHSN_5</t>
-  </si>
-  <si>
-    <t>InwardHSN_5</t>
-  </si>
-  <si>
-    <t>OutwardHSN_6</t>
-  </si>
-  <si>
-    <t>InwardHSN_6</t>
-  </si>
-  <si>
-    <t>OutwardHSN_7</t>
-  </si>
-  <si>
-    <t>InwardHSN_7</t>
-  </si>
-  <si>
-    <t>OutwardHSN_8</t>
-  </si>
-  <si>
-    <t>InwardHSN_8</t>
-  </si>
-  <si>
-    <t>OutwardHSN_9</t>
-  </si>
-  <si>
-    <t>InwardHSN_9</t>
-  </si>
-  <si>
-    <t>OutwardHSN_10</t>
-  </si>
-  <si>
-    <t>InwardHSN_10</t>
-  </si>
-  <si>
-    <t>POS_1</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
-    <t>POS_2</t>
-  </si>
-  <si>
-    <t>POS_3</t>
-  </si>
-  <si>
-    <t>POS_4</t>
-  </si>
-  <si>
-    <t>POS_5</t>
-  </si>
-  <si>
-    <t>POS_6</t>
-  </si>
-  <si>
-    <t>POS_7</t>
-  </si>
-  <si>
-    <t>POS_8</t>
-  </si>
-  <si>
-    <t>POS_9</t>
-  </si>
-  <si>
-    <t>POS_10</t>
-  </si>
-  <si>
     <t>Invoice Date</t>
   </si>
   <si>
@@ -3163,9 +3013,6 @@
     <t>02/10/2020</t>
   </si>
   <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>Timesheet Employee No</t>
   </si>
   <si>
@@ -3184,18 +3031,6 @@
     <t>1707103536</t>
   </si>
   <si>
-    <t>1707105340</t>
-  </si>
-  <si>
-    <t>1707105341</t>
-  </si>
-  <si>
-    <t>Z11707105328</t>
-  </si>
-  <si>
-    <t>Z21707105328</t>
-  </si>
-  <si>
     <t>Client Number</t>
   </si>
   <si>
@@ -3229,9 +3064,6 @@
     <t>Blocked Global Client No</t>
   </si>
   <si>
-    <t>103556</t>
-  </si>
-  <si>
     <t>103132</t>
   </si>
   <si>
@@ -3310,9 +3142,6 @@
     <t>Banners-Design only</t>
   </si>
   <si>
-    <t>1712INVOICE</t>
-  </si>
-  <si>
     <t>Address_1</t>
   </si>
   <si>
@@ -3335,6 +3164,27 @@
   </si>
   <si>
     <t>No.2  Ward No.81</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>RB108_FP-CP</t>
+  </si>
+  <si>
+    <t>Design-Fixed Price - CP</t>
+  </si>
+  <si>
+    <t>103167006001</t>
+  </si>
+  <si>
+    <t>1707Invoice</t>
+  </si>
+  <si>
+    <t>01/03/2020</t>
+  </si>
+  <si>
+    <t>08</t>
   </si>
 </sst>
 </file>
@@ -4099,7 +3949,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4121,7 +3971,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4171,7 +4021,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="31"/>
@@ -4183,10 +4033,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1020</v>
+        <v>970</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4197,10 +4047,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -4211,10 +4061,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -4228,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -4240,10 +4090,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6"/>
@@ -4254,10 +4104,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1021</v>
+        <v>971</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4269,10 +4119,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -4283,10 +4133,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="101" t="s">
-        <v>1032</v>
+        <v>981</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4297,10 +4147,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -4312,10 +4162,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -4327,10 +4177,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -4342,10 +4192,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -4357,10 +4207,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>1022</v>
+        <v>972</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -4372,7 +4222,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>9</v>
@@ -4386,10 +4236,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>1023</v>
+        <v>973</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
@@ -4401,10 +4251,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1024</v>
+        <v>974</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -4416,10 +4266,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1024</v>
+        <v>974</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -4431,10 +4281,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -4445,10 +4295,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="C20" s="58"/>
       <c r="D20" s="58"/>
@@ -4460,10 +4310,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -4475,10 +4325,10 @@
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1026</v>
+        <v>976</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -4525,10 +4375,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4541,7 +4391,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B4" s="52">
         <v>130710080</v>
@@ -4549,10 +4399,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4565,23 +4415,23 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="52">
         <v>1307</v>
@@ -4618,7 +4468,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="26"/>
@@ -4631,10 +4481,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1020</v>
+        <v>970</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4647,10 +4497,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -4663,10 +4513,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -4682,7 +4532,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="15"/>
@@ -4695,10 +4545,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="15"/>
@@ -4710,10 +4560,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1021</v>
+        <v>971</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4726,10 +4576,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -4742,10 +4592,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="101" t="s">
-        <v>1032</v>
+        <v>981</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4758,10 +4608,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -4774,10 +4624,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -4790,10 +4640,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -4806,10 +4656,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -4822,10 +4672,10 @@
     </row>
     <row r="14" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>1022</v>
+        <v>972</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="45"/>
@@ -4838,7 +4688,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>9</v>
@@ -4854,10 +4704,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>1023</v>
+        <v>973</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="45"/>
@@ -4870,10 +4720,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1024</v>
+        <v>974</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -4886,10 +4736,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1024</v>
+        <v>974</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -4902,10 +4752,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="20"/>
@@ -4918,10 +4768,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="58"/>
@@ -4934,10 +4784,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="20"/>
@@ -4950,10 +4800,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1026</v>
+        <v>976</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
@@ -4982,10 +4832,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>1021</v>
+        <v>971</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -4998,10 +4848,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1027</v>
+        <v>977</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -5014,7 +4864,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -5056,12 +4906,12 @@
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B2" s="16">
         <v>120310019</v>
@@ -5069,90 +4919,90 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="90" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5186,7 +5036,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C1" s="51">
         <v>1307</v>
@@ -5194,13 +5044,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5216,13 +5066,13 @@
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5238,32 +5088,32 @@
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C8" s="52">
         <v>1307</v>
@@ -5295,55 +5145,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5351,52 +5201,52 @@
         <v>1307</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5427,23 +5277,23 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>1034</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5479,10 +5329,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5490,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5521,22 +5371,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="F1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5550,13 +5400,13 @@
         <v>1307700041</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -5573,7 +5423,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5586,24 +5436,16 @@
       <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31">
-        <v>1307</v>
-      </c>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1307</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="B3">
-        <v>1307700043</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5624,8 +5466,8 @@
   </sheetPr>
   <dimension ref="A1:FK12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5639,7 +5481,7 @@
   <sheetData>
     <row r="1" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B1" s="14">
         <v>1707</v>
@@ -5812,7 +5654,7 @@
     </row>
     <row r="2" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C2" s="60"/>
       <c r="E2" s="60"/>
@@ -5824,58 +5666,52 @@
     </row>
     <row r="3" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>1018</v>
+        <v>968</v>
       </c>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>1019</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>1029</v>
+        <v>978</v>
       </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>1030</v>
+        <v>979</v>
       </c>
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>1031</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>1042</v>
+        <v>993</v>
       </c>
     </row>
     <row r="12" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>1050</v>
+        <v>994</v>
       </c>
     </row>
   </sheetData>
@@ -5906,27 +5742,27 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -5957,27 +5793,27 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -5991,276 +5827,267 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11.140625" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="11.140625" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="11.140625" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="11.140625" customWidth="1"/>
-    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="11.140625" customWidth="1"/>
-    <col min="56" max="57" width="11.140625" customWidth="1"/>
-    <col min="62" max="63" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.140625" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="11.140625" customWidth="1"/>
+    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.140625" customWidth="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="11.140625" customWidth="1"/>
+    <col min="57" max="58" width="11.140625" customWidth="1"/>
+    <col min="63" max="64" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>941</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>940</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>939</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>938</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>936</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>937</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
+        <v>934</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>935</v>
+      </c>
+      <c r="AC1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>971</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>972</v>
-      </c>
-      <c r="J1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF1" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="AG1" s="27" t="s">
+        <v>933</v>
+      </c>
+      <c r="AH1" s="27" t="s">
+        <v>932</v>
+      </c>
+      <c r="AI1" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>974</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>975</v>
-      </c>
-      <c r="P1" s="27" t="s">
+      <c r="AK1" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL1" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
+        <v>931</v>
+      </c>
+      <c r="AN1" s="27" t="s">
+        <v>930</v>
+      </c>
+      <c r="AO1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="AP1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="S1" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>976</v>
-      </c>
-      <c r="U1" s="27" t="s">
-        <v>977</v>
-      </c>
-      <c r="V1" s="27" t="s">
+      <c r="AQ1" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR1" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="AS1" s="27" t="s">
+        <v>929</v>
+      </c>
+      <c r="AT1" s="27" t="s">
+        <v>928</v>
+      </c>
+      <c r="AU1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="AV1" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z1" s="27" t="s">
-        <v>978</v>
-      </c>
-      <c r="AA1" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AW1" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX1" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AY1" s="27" t="s">
+        <v>927</v>
+      </c>
+      <c r="AZ1" s="27" t="s">
+        <v>926</v>
+      </c>
+      <c r="BA1" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="BB1" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="AE1" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF1" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="AG1" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="AH1" s="27" t="s">
+      <c r="BC1" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD1" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="BE1" s="27" t="s">
+        <v>924</v>
+      </c>
+      <c r="BF1" s="27" t="s">
+        <v>925</v>
+      </c>
+      <c r="BG1" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="BH1" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="AK1" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="AL1" s="27" t="s">
-        <v>982</v>
-      </c>
-      <c r="AM1" s="27" t="s">
-        <v>983</v>
-      </c>
-      <c r="AN1" s="27" t="s">
+      <c r="BI1" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ1" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="AO1" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP1" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ1" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="AR1" s="27" t="s">
-        <v>984</v>
-      </c>
-      <c r="AS1" s="27" t="s">
-        <v>985</v>
-      </c>
-      <c r="AT1" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU1" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV1" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="AW1" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="AX1" s="27" t="s">
-        <v>986</v>
-      </c>
-      <c r="AY1" s="27" t="s">
-        <v>987</v>
-      </c>
-      <c r="AZ1" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="BA1" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="BB1" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="BC1" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="BD1" s="27" t="s">
-        <v>988</v>
-      </c>
-      <c r="BE1" s="27" t="s">
-        <v>989</v>
-      </c>
-      <c r="BF1" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="BG1" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="BH1" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="BI1" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="BJ1" s="27" t="s">
-        <v>990</v>
-      </c>
       <c r="BK1" s="27" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+        <v>923</v>
+      </c>
+      <c r="BL1" s="27" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="60">
         <v>1707</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="C2" s="60"/>
-      <c r="D2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>500</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>973</v>
-      </c>
-      <c r="I2" s="60" t="s">
-        <v>973</v>
-      </c>
+      <c r="D2" s="60" t="s">
+        <v>952</v>
+      </c>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6273,339 +6100,295 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:BU3"/>
+  <dimension ref="A1:BL3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="11.140625" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="11.140625" customWidth="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="11.140625" customWidth="1"/>
-    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="11.140625" customWidth="1"/>
-    <col min="46" max="46" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="11.140625" customWidth="1"/>
-    <col min="53" max="53" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="59" width="11.140625" customWidth="1"/>
-    <col min="64" max="66" width="11.140625" customWidth="1"/>
-    <col min="71" max="73" width="11.140625" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.140625" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="11.140625" customWidth="1"/>
+    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.140625" customWidth="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="11.140625" customWidth="1"/>
+    <col min="57" max="58" width="11.140625" customWidth="1"/>
+    <col min="63" max="64" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>941</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>940</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>939</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>938</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>936</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>937</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
+        <v>934</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>935</v>
+      </c>
+      <c r="AC1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>971</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>972</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>992</v>
-      </c>
-      <c r="K1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF1" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="AG1" s="27" t="s">
+        <v>933</v>
+      </c>
+      <c r="AH1" s="27" t="s">
+        <v>932</v>
+      </c>
+      <c r="AI1" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="N1" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>974</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>975</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>994</v>
-      </c>
-      <c r="R1" s="27" t="s">
+      <c r="AK1" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL1" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
+        <v>931</v>
+      </c>
+      <c r="AN1" s="27" t="s">
+        <v>930</v>
+      </c>
+      <c r="AO1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="AP1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="V1" s="27" t="s">
-        <v>976</v>
-      </c>
-      <c r="W1" s="27" t="s">
-        <v>977</v>
-      </c>
-      <c r="X1" s="27" t="s">
-        <v>995</v>
-      </c>
-      <c r="Y1" s="27" t="s">
+      <c r="AQ1" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR1" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AS1" s="27" t="s">
+        <v>929</v>
+      </c>
+      <c r="AT1" s="27" t="s">
+        <v>928</v>
+      </c>
+      <c r="AU1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AV1" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AB1" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC1" s="27" t="s">
-        <v>978</v>
-      </c>
-      <c r="AD1" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="AE1" s="27" t="s">
-        <v>996</v>
-      </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AW1" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX1" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AY1" s="27" t="s">
+        <v>927</v>
+      </c>
+      <c r="AZ1" s="27" t="s">
+        <v>926</v>
+      </c>
+      <c r="BA1" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="BB1" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="AI1" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="AJ1" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="AK1" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="AL1" s="27" t="s">
-        <v>997</v>
-      </c>
-      <c r="AM1" s="27" t="s">
+      <c r="BC1" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD1" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="AN1" s="27" t="s">
+      <c r="BE1" s="27" t="s">
+        <v>924</v>
+      </c>
+      <c r="BF1" s="27" t="s">
+        <v>925</v>
+      </c>
+      <c r="BG1" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="AO1" s="27" t="s">
+      <c r="BH1" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="AP1" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="AQ1" s="27" t="s">
-        <v>982</v>
-      </c>
-      <c r="AR1" s="27" t="s">
-        <v>983</v>
-      </c>
-      <c r="AS1" s="27" t="s">
-        <v>998</v>
-      </c>
-      <c r="AT1" s="27" t="s">
+      <c r="BI1" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ1" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="AU1" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="AV1" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="AW1" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="AX1" s="27" t="s">
-        <v>984</v>
-      </c>
-      <c r="AY1" s="27" t="s">
-        <v>985</v>
-      </c>
-      <c r="AZ1" s="27" t="s">
-        <v>999</v>
-      </c>
-      <c r="BA1" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="BB1" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="BC1" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="BD1" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="BE1" s="27" t="s">
-        <v>986</v>
-      </c>
-      <c r="BF1" s="27" t="s">
-        <v>987</v>
-      </c>
-      <c r="BG1" s="27" t="s">
-        <v>1000</v>
-      </c>
-      <c r="BH1" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="BI1" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="BJ1" s="27" t="s">
-        <v>176</v>
-      </c>
       <c r="BK1" s="27" t="s">
-        <v>244</v>
+        <v>923</v>
       </c>
       <c r="BL1" s="27" t="s">
-        <v>988</v>
-      </c>
-      <c r="BM1" s="27" t="s">
-        <v>989</v>
-      </c>
-      <c r="BN1" s="27" t="s">
-        <v>1001</v>
-      </c>
-      <c r="BO1" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="BP1" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ1" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="BR1" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="BS1" s="27" t="s">
-        <v>990</v>
-      </c>
-      <c r="BT1" s="27" t="s">
-        <v>991</v>
-      </c>
-      <c r="BU1" s="27" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="60">
         <v>1707</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>393</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>500</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>973</v>
-      </c>
-      <c r="I2" s="60" t="s">
-        <v>973</v>
-      </c>
-      <c r="J2" s="60" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60" t="s">
+        <v>952</v>
+      </c>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1712</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1075</v>
+        <v>374</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>952</v>
       </c>
       <c r="E3" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F3">
+        <v>1019</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G3">
         <v>25</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>500</v>
       </c>
-      <c r="H3" s="60" t="s">
-        <v>973</v>
-      </c>
       <c r="I3" s="60" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>993</v>
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -6636,16 +6419,14 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>1035</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B2" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6661,7 +6442,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6675,16 +6456,14 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>1036</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B2" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6711,7 +6490,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B1">
         <v>1307</v>
@@ -6719,10 +6498,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6738,12 +6517,12 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>1307</v>
@@ -6751,7 +6530,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B6" s="92">
         <v>43783</v>
@@ -6759,7 +6538,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B7">
         <v>4500</v>
@@ -6767,18 +6546,18 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6808,7 +6587,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="91" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" s="30">
         <v>1307</v>
@@ -6816,10 +6595,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6827,31 +6606,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -6882,47 +6661,47 @@
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="78" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B6" s="80" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6953,47 +6732,47 @@
         <v>5</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="B3" s="88" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -7020,15 +6799,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="B2" s="30">
         <v>83.62</v>
@@ -7036,7 +6815,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="B3" s="30">
         <v>1.39</v>
@@ -7044,7 +6823,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="B4" s="30">
         <v>4.72</v>
@@ -7052,7 +6831,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="B5" s="30">
         <v>323363078.55000001</v>
@@ -7060,7 +6839,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="B6" s="30">
         <v>323325.90999999997</v>
@@ -7068,7 +6847,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="B7" s="30">
         <v>1.1100000000000001</v>
@@ -7076,7 +6855,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="B8" s="30">
         <v>1.24</v>
@@ -7084,7 +6863,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="B9" s="30">
         <v>4.55</v>
@@ -7092,7 +6871,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="B10" s="30">
         <v>135.61000000000001</v>
@@ -7100,7 +6879,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="B11" s="30">
         <v>589.11</v>
@@ -7108,7 +6887,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="B12" s="30">
         <v>2.19</v>
@@ -7116,7 +6895,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="B13" s="30">
         <v>430.35</v>
@@ -7124,7 +6903,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="B14" s="30">
         <v>53.58</v>
@@ -7132,1050 +6911,1050 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>826</v>
+        <v>806</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>833</v>
+        <v>813</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>834</v>
+        <v>814</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>835</v>
+        <v>815</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>836</v>
+        <v>816</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>837</v>
+        <v>817</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>840</v>
+        <v>820</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>843</v>
+        <v>823</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>868</v>
+        <v>848</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>873</v>
+        <v>853</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>904</v>
+        <v>884</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>905</v>
+        <v>885</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>913</v>
+        <v>893</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>915</v>
+        <v>895</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>916</v>
+        <v>896</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>917</v>
+        <v>897</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>919</v>
+        <v>899</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>920</v>
+        <v>900</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>921</v>
+        <v>901</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>922</v>
+        <v>902</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>923</v>
+        <v>903</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>924</v>
+        <v>904</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>925</v>
+        <v>905</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>926</v>
+        <v>906</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>928</v>
+        <v>908</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>929</v>
+        <v>909</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>930</v>
+        <v>910</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>931</v>
+        <v>911</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>932</v>
+        <v>912</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>933</v>
+        <v>913</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>934</v>
+        <v>914</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>935</v>
+        <v>915</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>937</v>
+        <v>917</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>938</v>
+        <v>918</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>939</v>
+        <v>919</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>920</v>
+        <v>900</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>941</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -8206,47 +7985,47 @@
         <v>5</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -8260,10 +8039,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8277,86 +8056,66 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1003</v>
+        <v>953</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1707</v>
       </c>
-      <c r="B2">
-        <v>1707105342</v>
-      </c>
       <c r="C2" s="60" t="s">
-        <v>394</v>
+        <v>1034</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>394</v>
+        <v>1034</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F2" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1712</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>394</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>394</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1077</v>
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
@@ -8373,7 +8132,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8394,11 +8153,9 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>1037</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="B2" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8414,7 +8171,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8432,11 +8189,9 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>1038</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="B2" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8474,23 +8229,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -8522,7 +8277,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8535,10 +8290,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8546,31 +8301,31 @@
         <v>0</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -8599,54 +8354,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B2" s="30">
         <v>1307</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -8674,15 +8429,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="B2">
         <v>1307100244</v>
@@ -8718,66 +8473,66 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B2" s="30">
         <v>1307</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -8807,60 +8562,60 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="F1" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="G1" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="H1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="D2" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="F2" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="G2">
         <v>111413</v>
       </c>
       <c r="H2" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="I2">
         <v>1307200433</v>
@@ -8893,2034 +8648,2034 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="B8" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="B9" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="B10" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="B11" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="B13" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="B14" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="B15" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="B16" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="B17" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="B18" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="B19" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="B20" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="B21" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="B22" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="B23" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="B24" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="B25" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="B26" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="B27" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="B28" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B29" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="B30" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="B31" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="B32" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="B33" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="B34" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="B35" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="B36" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="B37" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="B38" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="B39" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="B40" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B41" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="B42" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="B43" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="B44" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="B45" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="B46" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="B47" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="B48" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="B49" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="B50" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="B52" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="B53" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="B54" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="B55" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="B56" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="B57" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="B58" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="B59" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="B60" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="B61" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="B62" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="B63" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="B64" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="B65" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="B66" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="B67" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="B68" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="B70" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="B71" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="B72" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="B73" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="B74" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="B75" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="B76" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="B77" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="B78" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="B79" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="B80" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="B81" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="B82" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="B83" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B84" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="B85" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="B86" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="B87" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="B88" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="B89" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="B90" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="B91" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="B92" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="B93" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="B94" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="B95" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="B96" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="B97" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="B98" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="B99" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="B100" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="B101" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="B102" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="B103" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="B104" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="B105" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="B106" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="B107" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="B108" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="B109" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="B110" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="B111" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="B112" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="B113" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="B114" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="B115" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="B116" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="B117" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="B118" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="B119" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="B120" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="B121" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="B122" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="B123" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="B124" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="B125" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="B126" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="B127" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="B128" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="B129" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="B130" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="B131" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="B132" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="B133" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B134" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="B135" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="B136" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="B137" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="B138" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="B139" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="B140" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="B141" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="B142" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="B143" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="B144" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="B145" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="B146" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="B147" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="B148" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="B149" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="B150" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="B151" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="B152" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="B153" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="B154" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="B155" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="B156" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="B157" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="B158" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="B159" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="B160" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="B161" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="B162" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="B163" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="B164" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="B165" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="B166" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="B167" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="B168" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="B169" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="B170" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="B171" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="B172" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="B173" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="B174" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="B175" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="B176" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="B177" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="B178" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="B179" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="B180" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="B181" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="B182" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="B183" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="B184" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="B185" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="B186" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="B187" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="B188" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="B189" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="B190" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="B191" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="B192" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="B193" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="B194" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="B195" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="B196" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="B197" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="B198" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="B199" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="B200" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="B201" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="B202" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="B203" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="B204" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="B205" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="B206" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="B207" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="B208" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="B209" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="B210" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="B211" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="B212" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="B213" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="B214" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="B215" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="B216" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="B217" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="B218" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="B219" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="B220" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="B221" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="B222" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="B223" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="B224" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="B225" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="B226" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="B227" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="B228" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="B229" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="B230" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="B231" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
       <c r="B232" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="B233" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="B234" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="B235" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="B236" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="B237" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="B238" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="B239" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="B240" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="B241" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="B242" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="B243" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="B244" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="B245" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="B246" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="B247" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="B248" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="B249" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="B250" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="B251" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="B252" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="B253" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="B254" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -10952,7 +10707,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10965,31 +10720,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B6" s="30">
         <v>131885</v>
@@ -10997,10 +10752,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -11031,7 +10786,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11044,31 +10799,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B6" s="30">
         <v>131885</v>
@@ -11102,141 +10857,141 @@
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="U1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="V1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" s="27" t="s">
+      <c r="W1" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y1" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="N1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="P1" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="R1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="AH1" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="T1" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="U1" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="V1" s="27" t="s">
+      <c r="AI1" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ1" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK1" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="AL1" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="X1" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y1" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN1" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO1" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AP1" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="AB1" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC1" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD1" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE1" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF1" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG1" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH1" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI1" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ1" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK1" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL1" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AM1" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN1" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="AO1" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP1" s="27" t="s">
-        <v>179</v>
-      </c>
       <c r="AQ1" s="27" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B2" s="93">
         <v>1319</v>
@@ -11248,10 +11003,10 @@
         <v>1319200043</v>
       </c>
       <c r="E2" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="F2" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -11292,7 +11047,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1039</v>
+        <v>984</v>
       </c>
       <c r="B2">
         <v>103556</v>
@@ -11300,10 +11055,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -11339,7 +11094,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1039</v>
+        <v>984</v>
       </c>
       <c r="B2">
         <v>103556</v>
@@ -11347,26 +11102,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1040</v>
+        <v>985</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>1042</v>
+        <v>987</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1041</v>
+        <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1043</v>
+        <v>988</v>
       </c>
     </row>
   </sheetData>
@@ -11402,34 +11157,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1039</v>
+        <v>984</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>1051</v>
+        <v>995</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1040</v>
+        <v>985</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>1052</v>
+        <v>996</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1041</v>
+        <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1053</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -11460,23 +11215,23 @@
         <v>5</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1039</v>
+        <v>984</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>1051</v>
+        <v>995</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -11512,7 +11267,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1039</v>
+        <v>984</v>
       </c>
       <c r="B2" s="1">
         <v>103115</v>
@@ -11520,26 +11275,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1040</v>
+        <v>985</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>1058</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1041</v>
+        <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1059</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -11575,7 +11330,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1039</v>
+        <v>984</v>
       </c>
       <c r="B2" s="106">
         <v>103132</v>
@@ -11583,26 +11338,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1054</v>
+        <v>998</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>1055</v>
+        <v>999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1056</v>
+        <v>1000</v>
       </c>
       <c r="B5" t="s">
-        <v>1057</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -11630,7 +11385,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B1">
         <v>1707</v>
@@ -11638,7 +11393,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1044</v>
+        <v>989</v>
       </c>
       <c r="B2">
         <v>1707</v>
@@ -11646,7 +11401,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B3">
         <v>107433</v>
@@ -11654,18 +11409,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1060</v>
+        <v>1004</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>1061</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -11681,8 +11436,8 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11722,13 +11477,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1062</v>
+        <v>1006</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -11751,101 +11506,101 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>1008</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1064</v>
+        <v>1008</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>381</v>
+        <v>1009</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1065</v>
+        <v>1009</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1066</v>
+        <v>1010</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1067</v>
+        <v>1011</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1068</v>
+        <v>1012</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1069</v>
+        <v>1013</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="8"/>
@@ -11855,23 +11610,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>69</v>
+        <v>1030</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1070</v>
+        <v>1014</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>131</v>
+        <v>1031</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1071</v>
+        <v>1015</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="32"/>
@@ -11881,10 +11636,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>384</v>
+        <v>1032</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1072</v>
+        <v>1016</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="70"/>
@@ -11894,17 +11649,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1073</v>
+        <v>1017</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
@@ -11913,7 +11668,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
@@ -11922,7 +11677,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
@@ -11954,7 +11709,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B1">
         <v>1707</v>
@@ -11962,7 +11717,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1044</v>
+        <v>989</v>
       </c>
       <c r="B2">
         <v>1707</v>
@@ -11970,7 +11725,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1045</v>
+        <v>990</v>
       </c>
       <c r="B3">
         <v>107444</v>
@@ -11978,18 +11733,18 @@
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1046</v>
+        <v>991</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>1047</v>
+        <v>992</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -12005,7 +11760,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -12024,7 +11779,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1039</v>
+        <v>984</v>
       </c>
       <c r="B2">
         <v>103557</v>
@@ -12032,38 +11787,38 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1078</v>
+        <v>1021</v>
       </c>
       <c r="B4" t="s">
-        <v>1085</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1079</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1080</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1081</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1082</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -12099,7 +11854,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1039</v>
+        <v>984</v>
       </c>
       <c r="B2">
         <v>103557</v>
@@ -12107,54 +11862,54 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1040</v>
+        <v>985</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>1083</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1041</v>
+        <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1084</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1078</v>
+        <v>1021</v>
       </c>
       <c r="B6" t="s">
-        <v>1085</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1079</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1080</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1081</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1082</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -12202,10 +11957,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>962</v>
+        <v>942</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="39"/>
@@ -12224,7 +11979,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>963</v>
+        <v>943</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="39"/>
@@ -12240,10 +11995,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="39"/>
@@ -12262,7 +12017,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>965</v>
+        <v>945</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="39"/>
@@ -12281,7 +12036,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="39"/>
@@ -12297,10 +12052,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>966</v>
+        <v>946</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="39"/>
@@ -12316,10 +12071,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>967</v>
+        <v>947</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="39"/>
@@ -12335,10 +12090,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>968</v>
+        <v>948</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="39"/>
@@ -12354,10 +12109,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="39"/>
@@ -12373,10 +12128,10 @@
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B11" s="97" t="s">
-        <v>970</v>
+        <v>950</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="40"/>
@@ -12404,7 +12159,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12418,119 +12173,119 @@
         <v>16</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>1004</v>
+        <v>954</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>1005</v>
+        <v>955</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="96" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>1006</v>
+        <v>956</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="96" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>1007</v>
+        <v>957</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>1008</v>
+        <v>958</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="96" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>1009</v>
+        <v>959</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>1010</v>
+        <v>960</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>1011</v>
+        <v>961</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="96" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>1012</v>
+        <v>962</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="96" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>1013</v>
+        <v>963</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="96" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>1014</v>
+        <v>964</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="96" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>1015</v>
+        <v>965</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="96" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>1016</v>
+        <v>966</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="97" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>1017</v>
+        <v>967</v>
       </c>
     </row>
   </sheetData>
@@ -12547,7 +12302,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12562,38 +12317,26 @@
       <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31">
-        <v>1307</v>
-      </c>
-      <c r="C1" s="31">
-        <v>1201</v>
-      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
-        <v>1307</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1201</v>
-      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>133</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -12602,144 +12345,92 @@
       <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>21</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>136</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>137</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>139</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>211</v>
-      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>213</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12755,7 +12446,7 @@
   <dimension ref="A1:BK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12799,193 +12490,193 @@
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>941</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>940</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>939</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>938</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>936</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>937</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
+        <v>934</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>935</v>
+      </c>
+      <c r="AB1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>960</v>
-      </c>
-      <c r="J1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="AF1" s="27" t="s">
+        <v>933</v>
+      </c>
+      <c r="AG1" s="27" t="s">
+        <v>932</v>
+      </c>
+      <c r="AH1" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="AI1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="N1" s="27" t="s">
-        <v>959</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>958</v>
-      </c>
-      <c r="P1" s="27" t="s">
+      <c r="AK1" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="AL1" s="27" t="s">
+        <v>931</v>
+      </c>
+      <c r="AM1" s="27" t="s">
+        <v>930</v>
+      </c>
+      <c r="AN1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="AO1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="AP1" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="T1" s="27" t="s">
-        <v>956</v>
-      </c>
-      <c r="U1" s="27" t="s">
-        <v>957</v>
-      </c>
-      <c r="V1" s="27" t="s">
+      <c r="AQ1" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="AR1" s="27" t="s">
+        <v>929</v>
+      </c>
+      <c r="AS1" s="27" t="s">
+        <v>928</v>
+      </c>
+      <c r="AT1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="AU1" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="AV1" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="Z1" s="27" t="s">
-        <v>954</v>
-      </c>
-      <c r="AA1" s="27" t="s">
-        <v>955</v>
-      </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AW1" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AX1" s="27" t="s">
+        <v>927</v>
+      </c>
+      <c r="AY1" s="27" t="s">
+        <v>926</v>
+      </c>
+      <c r="AZ1" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="BA1" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="BB1" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="AF1" s="27" t="s">
-        <v>953</v>
-      </c>
-      <c r="AG1" s="27" t="s">
-        <v>952</v>
-      </c>
-      <c r="AH1" s="27" t="s">
+      <c r="BC1" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="BD1" s="27" t="s">
+        <v>924</v>
+      </c>
+      <c r="BE1" s="27" t="s">
+        <v>925</v>
+      </c>
+      <c r="BF1" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="BG1" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="BH1" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="AL1" s="27" t="s">
-        <v>951</v>
-      </c>
-      <c r="AM1" s="27" t="s">
-        <v>950</v>
-      </c>
-      <c r="AN1" s="27" t="s">
+      <c r="BI1" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="AO1" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP1" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ1" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="AR1" s="27" t="s">
-        <v>949</v>
-      </c>
-      <c r="AS1" s="27" t="s">
-        <v>948</v>
-      </c>
-      <c r="AT1" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU1" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV1" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="AW1" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="AX1" s="27" t="s">
-        <v>947</v>
-      </c>
-      <c r="AY1" s="27" t="s">
-        <v>946</v>
-      </c>
-      <c r="AZ1" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="BA1" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="BB1" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="BC1" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="BD1" s="27" t="s">
-        <v>944</v>
-      </c>
-      <c r="BE1" s="27" t="s">
-        <v>945</v>
-      </c>
-      <c r="BF1" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="BG1" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="BH1" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="BI1" s="27" t="s">
-        <v>181</v>
-      </c>
       <c r="BJ1" s="27" t="s">
-        <v>943</v>
+        <v>923</v>
       </c>
       <c r="BK1" s="27" t="s">
-        <v>942</v>
+        <v>922</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
@@ -12993,16 +12684,16 @@
         <v>1707</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>1033</v>
+        <v>982</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -13017,10 +12708,10 @@
         <v>998312</v>
       </c>
       <c r="J2" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="K2" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="L2">
         <v>25</v>
@@ -13040,13 +12731,13 @@
         <v>1712</v>
       </c>
       <c r="C3" t="s">
-        <v>1074</v>
+        <v>1018</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -13061,10 +12752,10 @@
         <v>998312</v>
       </c>
       <c r="J3" t="s">
-        <v>1075</v>
+        <v>1019</v>
       </c>
       <c r="K3" t="s">
-        <v>1076</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -13131,136 +12822,136 @@
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="P1" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="U1" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="V1" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="W1" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="Y1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="AF1" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AG1" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AH1" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AI1" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AK1" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AL1" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AN1" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AO1" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AP1" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AQ1" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AR1" s="27" t="s">
         <v>107</v>
-      </c>
-      <c r="AL1" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM1" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN1" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO1" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP1" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ1" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR1" s="27" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
@@ -13268,34 +12959,34 @@
         <v>1307</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H2">
         <v>1000</v>
       </c>
       <c r="I2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L2">
         <v>200</v>
@@ -13306,34 +12997,34 @@
         <v>1284</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H3">
         <v>1000</v>
       </c>
       <c r="I3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="J3" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L3">
         <v>1300</v>
@@ -13344,22 +13035,22 @@
         <v>1205</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H4">
         <v>1000</v>
@@ -13393,29 +13084,26 @@
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B2" s="60"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13423,57 +13111,57 @@
         <v>0</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>124</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1037">
   <si>
     <t>Description</t>
   </si>
@@ -3185,6 +3185,9 @@
   </si>
   <si>
     <t>08</t>
+  </si>
+  <si>
+    <t>1707105266</t>
   </si>
 </sst>
 </file>
@@ -5466,7 +5469,7 @@
   </sheetPr>
   <dimension ref="A1:FK12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5693,15 +5696,24 @@
       <c r="A8" s="30" t="s">
         <v>978</v>
       </c>
+      <c r="B8" s="30" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>979</v>
       </c>
+      <c r="B9" s="30" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>980</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
@@ -13069,8 +13081,8 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13091,7 +13103,9 @@
       <c r="A2" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="60" t="s">
+        <v>1036</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Critical_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Critical_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="40" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -54,18 +54,19 @@
     <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId40"/>
     <sheet name="Reverse Invoice" sheetId="41" r:id="rId41"/>
     <sheet name="Credit Note With PO" sheetId="42" r:id="rId42"/>
-    <sheet name="BlockGlobalClient" sheetId="47" r:id="rId43"/>
-    <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId44"/>
-    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId45"/>
-    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId46"/>
-    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId47"/>
-    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId48"/>
-    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId49"/>
-    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId50"/>
-    <sheet name="AmendGlobalClient" sheetId="55" r:id="rId51"/>
-    <sheet name="AmendGlobalBrand" sheetId="56" r:id="rId52"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId53"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId54"/>
+    <sheet name="CreateClient" sheetId="57" r:id="rId43"/>
+    <sheet name="BlockGlobalClient" sheetId="47" r:id="rId44"/>
+    <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId45"/>
+    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId46"/>
+    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId47"/>
+    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId48"/>
+    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId49"/>
+    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId50"/>
+    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId51"/>
+    <sheet name="AmendGlobalClient" sheetId="55" r:id="rId52"/>
+    <sheet name="AmendGlobalBrand" sheetId="56" r:id="rId53"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId54"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId55"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1076">
   <si>
     <t>Description</t>
   </si>
@@ -3188,6 +3189,123 @@
   </si>
   <si>
     <t>1707105266</t>
+  </si>
+  <si>
+    <t>1707109739</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>1707_AutoClient</t>
+  </si>
+  <si>
+    <t>Street 1</t>
+  </si>
+  <si>
+    <t>Street1</t>
+  </si>
+  <si>
+    <t>Post Code</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>Post District</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Tax No.</t>
+  </si>
+  <si>
+    <t>2313154654</t>
+  </si>
+  <si>
+    <t>Company Reg. No.</t>
+  </si>
+  <si>
+    <t>Client Group</t>
+  </si>
+  <si>
+    <t>Consumer Goods &amp; Services</t>
+  </si>
+  <si>
+    <t>Control Account</t>
+  </si>
+  <si>
+    <t>Trade Debtors</t>
+  </si>
+  <si>
+    <t>AKQAIN</t>
+  </si>
+  <si>
+    <t>Attn.</t>
+  </si>
+  <si>
+    <t>1707 Finance</t>
+  </si>
+  <si>
+    <t>AutomEmail@gmail.com</t>
+  </si>
+  <si>
+    <t>Acct. Director No.</t>
+  </si>
+  <si>
+    <t>20 Days</t>
+  </si>
+  <si>
+    <t>Company Tax Code</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Job Price List, Sales</t>
+  </si>
+  <si>
+    <t>1707_INR_Billable_Price_List</t>
+  </si>
+  <si>
+    <t>Default Brand</t>
+  </si>
+  <si>
+    <t>AutoGlobalBrand</t>
+  </si>
+  <si>
+    <t>Default Product</t>
+  </si>
+  <si>
+    <t>AutoGlobalProduct</t>
+  </si>
+  <si>
+    <t>State Code</t>
+  </si>
+  <si>
+    <t>GST Debtor Type</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>9486353217</t>
+  </si>
+  <si>
+    <t>Global Client</t>
+  </si>
+  <si>
+    <t>107742</t>
+  </si>
+  <si>
+    <t>3543214631</t>
   </si>
 </sst>
 </file>
@@ -5467,9 +5585,9 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FK12"/>
+  <dimension ref="A1:FK13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5726,6 +5844,14 @@
         <v>994</v>
       </c>
     </row>
+    <row r="13" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>1074</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6475,7 +6601,9 @@
       <c r="A2" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="61" t="s">
+        <v>1037</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11038,6 +11166,248 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="102">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B18">
+        <v>17079905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B26">
+        <v>464576457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B27">
+        <v>34576457</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11079,7 +11449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11142,7 +11512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11205,7 +11575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11252,7 +11622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11315,7 +11685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11370,69 +11740,6 @@
       </c>
       <c r="B5" t="s">
         <v>1001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>989</v>
-      </c>
-      <c r="B2">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3">
-        <v>107433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -11710,6 +12017,69 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B2">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3">
+        <v>107433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11765,7 +12135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11839,7 +12209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11930,7 +12300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -12163,7 +12533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -13081,7 +13451,7 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Critical_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Critical_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3305,7 +3305,7 @@
     <t>107742</t>
   </si>
   <si>
-    <t>3543214631</t>
+    <t>3543214632</t>
   </si>
 </sst>
 </file>
@@ -11168,7 +11168,7 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -3305,7 +3305,7 @@
     <t>107742</t>
   </si>
   <si>
-    <t>3543214632</t>
+    <t>3543214633</t>
   </si>
 </sst>
 </file>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -3305,7 +3305,7 @@
     <t>107742</t>
   </si>
   <si>
-    <t>3543214633</t>
+    <t>3543214640</t>
   </si>
 </sst>
 </file>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -3305,7 +3305,7 @@
     <t>107742</t>
   </si>
   <si>
-    <t>3543214640</t>
+    <t>3543214642</t>
   </si>
 </sst>
 </file>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Critical_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Critical_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="40" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="48" activeTab="51"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1077">
   <si>
     <t>Description</t>
   </si>
@@ -3305,7 +3305,10 @@
     <t>107742</t>
   </si>
   <si>
-    <t>3543214642</t>
+    <t>3543214646</t>
+  </si>
+  <si>
+    <t>No.2  Ward No.83</t>
   </si>
 </sst>
 </file>
@@ -11168,7 +11171,7 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -12142,7 +12145,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -12180,7 +12183,7 @@
         <v>1021</v>
       </c>
       <c r="B4" t="s">
-        <v>1028</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Critical_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Test_Environment_25-2-2020\GlobalTestSuiteAutomation\WppRegpack\TestResource\Critical_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -11168,8 +11168,8 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="48" activeTab="51"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -3305,10 +3305,10 @@
     <t>107742</t>
   </si>
   <si>
-    <t>3543214646</t>
-  </si>
-  <si>
     <t>No.2  Ward No.83</t>
+  </si>
+  <si>
+    <t>3543214645</t>
   </si>
 </sst>
 </file>
@@ -11171,7 +11171,7 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -11194,7 +11194,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1006</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11258,7 +11258,7 @@
         <v>1048</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12145,7 +12145,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -12183,7 +12183,7 @@
         <v>1021</v>
       </c>
       <c r="B4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="39" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -3308,7 +3308,7 @@
     <t>No.2  Ward No.83</t>
   </si>
   <si>
-    <t>3543214645</t>
+    <t>3543214648</t>
   </si>
 </sst>
 </file>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="39" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="42" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -55,16 +55,16 @@
     <sheet name="Reverse Invoice" sheetId="41" r:id="rId41"/>
     <sheet name="Credit Note With PO" sheetId="42" r:id="rId42"/>
     <sheet name="CreateClient" sheetId="57" r:id="rId43"/>
-    <sheet name="BlockGlobalClient" sheetId="47" r:id="rId44"/>
-    <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId45"/>
-    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId46"/>
-    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId47"/>
-    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId48"/>
-    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId49"/>
-    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId50"/>
-    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId51"/>
-    <sheet name="AmendGlobalClient" sheetId="55" r:id="rId52"/>
-    <sheet name="AmendGlobalBrand" sheetId="56" r:id="rId53"/>
+    <sheet name="AmendGlobalClient" sheetId="55" r:id="rId44"/>
+    <sheet name="AmendGlobalBrand" sheetId="56" r:id="rId45"/>
+    <sheet name="BlockGlobalClient" sheetId="47" r:id="rId46"/>
+    <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId47"/>
+    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId48"/>
+    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId49"/>
+    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId50"/>
+    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId51"/>
+    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId52"/>
+    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId53"/>
     <sheet name="Agency Users" sheetId="11" r:id="rId54"/>
     <sheet name="SSC Users" sheetId="12" r:id="rId55"/>
   </sheets>
@@ -3308,7 +3308,7 @@
     <t>No.2  Ward No.83</t>
   </si>
   <si>
-    <t>3543214648</t>
+    <t>3543224600</t>
   </si>
 </sst>
 </file>
@@ -11411,6 +11411,171 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="102">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B2">
+        <v>103557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="102">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B2">
+        <v>103557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>986</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11452,7 +11617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11515,7 +11680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11578,7 +11743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11617,132 +11782,6 @@
       </c>
       <c r="B3" s="60" t="s">
         <v>375</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="102">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>984</v>
-      </c>
-      <c r="B2" s="1">
-        <v>103115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>985</v>
-      </c>
-      <c r="B4" s="106" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>986</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="102">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>984</v>
-      </c>
-      <c r="B2" s="106">
-        <v>103132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>998</v>
-      </c>
-      <c r="B4" s="106" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -12025,6 +12064,132 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="102">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B2" s="1">
+        <v>103115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>986</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="102">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B2" s="106">
+        <v>103132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>998</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
   </cols>
@@ -12075,7 +12240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -12138,171 +12303,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="102">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>984</v>
-      </c>
-      <c r="B2">
-        <v>103557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="102">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>984</v>
-      </c>
-      <c r="B2">
-        <v>103557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>985</v>
-      </c>
-      <c r="B4" s="103" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>986</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -12311,7 +12311,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="42" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="1085">
   <si>
     <t>Description</t>
   </si>
@@ -3302,13 +3302,37 @@
     <t>Global Client</t>
   </si>
   <si>
-    <t>107742</t>
+    <t>Global Client Number</t>
+  </si>
+  <si>
+    <t>Global Client Name</t>
+  </si>
+  <si>
+    <t>Global Brand Number</t>
+  </si>
+  <si>
+    <t>Global Brand Name</t>
+  </si>
+  <si>
+    <t>Global Product Number</t>
+  </si>
+  <si>
+    <t>Global Product Name</t>
+  </si>
+  <si>
+    <t>Amended Global Client No</t>
+  </si>
+  <si>
+    <t>1707Auto1@gmail.com</t>
   </si>
   <si>
     <t>No.2  Ward No.83</t>
   </si>
   <si>
-    <t>3543224600</t>
+    <t>Amended Global Brand No</t>
+  </si>
+  <si>
+    <t>3543224601</t>
   </si>
 </sst>
 </file>
@@ -5588,10 +5612,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FK13"/>
+  <dimension ref="A1:FK21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B11:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5817,25 +5841,16 @@
       <c r="A8" s="30" t="s">
         <v>978</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>974</v>
-      </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>362</v>
-      </c>
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>980</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>1035</v>
-      </c>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
@@ -5851,8 +5866,45 @@
       <c r="A13" s="30" t="s">
         <v>1073</v>
       </c>
-      <c r="B13" s="30" t="s">
+    </row>
+    <row r="14" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>1074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
@@ -11171,7 +11223,7 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -11194,7 +11246,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>363</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11258,7 +11310,7 @@
         <v>1048</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11414,7 +11466,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11451,7 +11503,7 @@
         <v>1021</v>
       </c>
       <c r="B4" t="s">
-        <v>1075</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11472,6 +11524,9 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1025</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1081</v>
       </c>
     </row>
   </sheetData>
@@ -11488,7 +11543,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11542,7 +11597,7 @@
         <v>1021</v>
       </c>
       <c r="B6" t="s">
-        <v>1028</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11563,6 +11618,9 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1025</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1081</v>
       </c>
     </row>
   </sheetData>
@@ -12311,7 +12369,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Critical_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Critical_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="42" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="1084">
   <si>
     <t>Description</t>
   </si>
@@ -3321,9 +3321,6 @@
   </si>
   <si>
     <t>Amended Global Client No</t>
-  </si>
-  <si>
-    <t>1707Auto1@gmail.com</t>
   </si>
   <si>
     <t>No.2  Ward No.83</t>
@@ -5614,7 +5611,7 @@
   </sheetPr>
   <dimension ref="A1:FK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B11:B22"/>
     </sheetView>
   </sheetViews>
@@ -5904,7 +5901,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
@@ -11224,7 +11221,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11310,7 +11307,7 @@
         <v>1048</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11465,7 +11462,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -11526,7 +11523,7 @@
         <v>1025</v>
       </c>
       <c r="B8" t="s">
-        <v>1081</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
@@ -11543,7 +11540,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11597,7 +11594,7 @@
         <v>1021</v>
       </c>
       <c r="B6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11620,7 +11617,7 @@
         <v>1025</v>
       </c>
       <c r="B10" t="s">
-        <v>1081</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Critical_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Test_Environment_25-2-2020\GlobalTestSuiteAutomation\WppRegpack\TestResource\Critical_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="42" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="49" activeTab="52"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,10 @@
     <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId50"/>
     <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId51"/>
     <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId52"/>
-    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId53"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId54"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId55"/>
+    <sheet name="CreateGlobalVendor" sheetId="58" r:id="rId53"/>
+    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId54"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId55"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId56"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1122">
   <si>
     <t>Description</t>
   </si>
@@ -3330,6 +3331,120 @@
   </si>
   <si>
     <t>3543224601</t>
+  </si>
+  <si>
+    <t>12 1st cross street</t>
+  </si>
+  <si>
+    <t>Automationvendor@gmail.com</t>
+  </si>
+  <si>
+    <t>AutomationVendor1</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Tax No</t>
+  </si>
+  <si>
+    <t>5698398649273</t>
+  </si>
+  <si>
+    <t>CompRegNo</t>
+  </si>
+  <si>
+    <t>Vendor Group</t>
+  </si>
+  <si>
+    <t>Facilities - Archiving</t>
+  </si>
+  <si>
+    <t>Trade Creditors</t>
+  </si>
+  <si>
+    <t>BFC</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Bank Account Name</t>
+  </si>
+  <si>
+    <t>IBAN</t>
+  </si>
+  <si>
+    <t>C0000440</t>
+  </si>
+  <si>
+    <t>SWIFT</t>
+  </si>
+  <si>
+    <t>BankAcctNo</t>
+  </si>
+  <si>
+    <t>3894700</t>
+  </si>
+  <si>
+    <t>SortCode</t>
+  </si>
+  <si>
+    <t>Attn</t>
+  </si>
+  <si>
+    <t>CompanyTaxCode</t>
+  </si>
+  <si>
+    <t>TaxDerivation</t>
+  </si>
+  <si>
+    <t>PaymentTerms</t>
+  </si>
+  <si>
+    <t>30 Days</t>
+  </si>
+  <si>
+    <t>PaymentMode</t>
+  </si>
+  <si>
+    <t>Manual - Local - 1</t>
+  </si>
+  <si>
+    <t>supplier</t>
+  </si>
+  <si>
+    <t>annualsupplier</t>
+  </si>
+  <si>
+    <t>Vendortype</t>
+  </si>
+  <si>
+    <t>Statecode</t>
+  </si>
+  <si>
+    <t>33 - Tamil Nadu</t>
+  </si>
+  <si>
+    <t>GST Vendor Type</t>
+  </si>
+  <si>
+    <t>TDSApplicable</t>
+  </si>
+  <si>
+    <t>TDS Applicable</t>
+  </si>
+  <si>
+    <t>TDS Section</t>
+  </si>
+  <si>
+    <t>WHMethod</t>
   </si>
 </sst>
 </file>
@@ -5609,10 +5724,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FK21"/>
+  <dimension ref="A1:FK22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B11:B22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5904,6 +6019,11 @@
         <v>1082</v>
       </c>
     </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11462,7 +11582,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -12300,6 +12420,304 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B5">
+        <v>9683254705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B8">
+        <v>6000056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B28">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12358,7 +12776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -12591,7 +13009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -12422,8 +12422,8 @@
   </sheetPr>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -3336,12 +3336,6 @@
     <t>12 1st cross street</t>
   </si>
   <si>
-    <t>Automationvendor@gmail.com</t>
-  </si>
-  <si>
-    <t>AutomationVendor1</t>
-  </si>
-  <si>
     <t>Post</t>
   </si>
   <si>
@@ -3354,9 +3348,6 @@
     <t>Tax No</t>
   </si>
   <si>
-    <t>5698398649273</t>
-  </si>
-  <si>
     <t>CompRegNo</t>
   </si>
   <si>
@@ -3445,6 +3436,15 @@
   </si>
   <si>
     <t>WHMethod</t>
+  </si>
+  <si>
+    <t>Automationvendor1@yahoo.com</t>
+  </si>
+  <si>
+    <t>AutomationVendorTest1</t>
+  </si>
+  <si>
+    <t>586294318</t>
   </si>
 </sst>
 </file>
@@ -12422,8 +12422,8 @@
   </sheetPr>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12461,7 +12461,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="101" t="s">
-        <v>1085</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12485,12 +12485,12 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>1086</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B8">
         <v>6000056</v>
@@ -12498,10 +12498,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B9" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12514,26 +12514,26 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>1091</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>1091</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B13" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12541,63 +12541,63 @@
         <v>1051</v>
       </c>
       <c r="B14" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B15" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B16" t="s">
-        <v>1086</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B17" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B18" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B20" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B21" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -12610,7 +12610,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B23" t="s">
         <v>1060</v>
@@ -12618,31 +12618,31 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B24" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B25" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B26" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B27">
         <v>3000</v>
@@ -12650,7 +12650,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B28">
         <v>300000</v>
@@ -12658,7 +12658,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B29" t="s">
         <v>1003</v>
@@ -12666,15 +12666,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B30" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B31" t="s">
         <v>1069</v>
@@ -12682,23 +12682,23 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B32" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B33" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B34" t="s">
         <v>313</v>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="49" activeTab="52"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="43" activeTab="46"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="1124">
   <si>
     <t>Description</t>
   </si>
@@ -3042,9 +3042,6 @@
     <t>Brand Name</t>
   </si>
   <si>
-    <t>103556001</t>
-  </si>
-  <si>
     <t>Radisson GRT</t>
   </si>
   <si>
@@ -3159,9 +3156,6 @@
     <t>E-mail</t>
   </si>
   <si>
-    <t>103557001</t>
-  </si>
-  <si>
     <t>Radisson Bengaluru Citi Centre</t>
   </si>
   <si>
@@ -3445,6 +3439,18 @@
   </si>
   <si>
     <t>586294318</t>
+  </si>
+  <si>
+    <t>107758</t>
+  </si>
+  <si>
+    <t>107758001</t>
+  </si>
+  <si>
+    <t>107755001</t>
+  </si>
+  <si>
+    <t>107755</t>
   </si>
 </sst>
 </file>
@@ -5966,57 +5972,57 @@
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="12" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="13" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="14" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="15" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -6202,7 +6208,7 @@
         <v>197</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>127</v>
@@ -6475,7 +6481,7 @@
         <v>197</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>127</v>
@@ -6683,10 +6689,10 @@
         <v>952</v>
       </c>
       <c r="E3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F3" t="s">
         <v>1019</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1020</v>
       </c>
       <c r="G3">
         <v>25</v>
@@ -6774,7 +6780,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
@@ -8418,16 +8424,16 @@
         <v>1707</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
@@ -11363,39 +11369,39 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B3" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B4" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11411,23 +11417,23 @@
         <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11440,18 +11446,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B12" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B13" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -11459,36 +11465,36 @@
         <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B15" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B16" s="101" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B18">
         <v>17079905</v>
@@ -11499,44 +11505,44 @@
         <v>238</v>
       </c>
       <c r="B19" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B20" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B21" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B22" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B23" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B24">
         <v>33</v>
@@ -11544,15 +11550,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B25" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B26">
         <v>464576457</v>
@@ -11560,7 +11566,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B27">
         <v>34576457</v>
@@ -11583,7 +11589,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11603,8 +11609,8 @@
       <c r="A2" t="s">
         <v>984</v>
       </c>
-      <c r="B2">
-        <v>103557</v>
+      <c r="B2" s="60" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11617,33 +11623,33 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B8" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -11660,7 +11666,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11681,8 +11687,8 @@
       <c r="A2" t="s">
         <v>984</v>
       </c>
-      <c r="B2">
-        <v>103557</v>
+      <c r="B2" s="60" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11698,7 +11704,7 @@
         <v>985</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>1026</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11706,38 +11712,38 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B6" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B10" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -11754,7 +11760,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11774,8 +11780,8 @@
       <c r="A2" t="s">
         <v>984</v>
       </c>
-      <c r="B2">
-        <v>103556</v>
+      <c r="B2" s="60" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11799,8 +11805,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11821,8 +11827,8 @@
       <c r="A2" t="s">
         <v>984</v>
       </c>
-      <c r="B2">
-        <v>103556</v>
+      <c r="B2" s="60" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11838,7 +11844,7 @@
         <v>985</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>987</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11846,7 +11852,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
   </sheetData>
@@ -11885,7 +11891,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11901,7 +11907,7 @@
         <v>985</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11909,7 +11915,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
   </sheetData>
@@ -11948,7 +11954,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12016,10 +12022,10 @@
         <v>54</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>1006</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1007</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -12042,10 +12048,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -12055,10 +12061,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -12097,7 +12103,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -12110,7 +12116,7 @@
         <v>364</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="8"/>
@@ -12123,7 +12129,7 @@
         <v>217</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -12136,7 +12142,7 @@
         <v>365</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="8"/>
@@ -12146,10 +12152,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -12159,10 +12165,10 @@
         <v>58</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="32"/>
@@ -12172,10 +12178,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="70"/>
@@ -12188,7 +12194,7 @@
         <v>366</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
@@ -12272,7 +12278,7 @@
         <v>985</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12280,7 +12286,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -12332,18 +12338,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B4" s="106" t="s">
         <v>998</v>
-      </c>
-      <c r="B4" s="106" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B5" t="s">
         <v>1000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -12379,7 +12385,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B2">
         <v>1707</v>
@@ -12395,10 +12401,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="104" t="s">
         <v>1004</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12422,8 +12428,8 @@
   </sheetPr>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A19" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12445,15 +12451,15 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12461,12 +12467,12 @@
         <v>29</v>
       </c>
       <c r="B4" s="101" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B5">
         <v>9683254705</v>
@@ -12482,15 +12488,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B8">
         <v>6000056</v>
@@ -12498,10 +12504,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B9" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12514,90 +12520,90 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B13" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B14" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B15" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B16" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B17" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B18" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B20" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B21" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -12605,44 +12611,44 @@
         <v>235</v>
       </c>
       <c r="B22" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B23" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B24" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B25" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B26" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B27">
         <v>3000</v>
@@ -12650,7 +12656,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B28">
         <v>300000</v>
@@ -12658,47 +12664,47 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B29" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B30" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B31" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B32" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B33" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B34" t="s">
         <v>313</v>
@@ -12740,7 +12746,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B2">
         <v>1707</v>
@@ -12748,7 +12754,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B3">
         <v>107444</v>
@@ -12756,10 +12762,10 @@
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B4" s="104" t="s">
         <v>991</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -13589,7 +13595,7 @@
         <v>1712</v>
       </c>
       <c r="C3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
@@ -13610,10 +13616,10 @@
         <v>998312</v>
       </c>
       <c r="J3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K3" t="s">
         <v>1019</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -13950,7 +13956,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13958,7 +13964,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="43" activeTab="46"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1134">
   <si>
     <t>Description</t>
   </si>
@@ -3451,6 +3451,36 @@
   </si>
   <si>
     <t>107755</t>
+  </si>
+  <si>
+    <t>1712 Account Director (TSTAUTO)</t>
+  </si>
+  <si>
+    <t>1712 Admin (TSTAUTO)</t>
+  </si>
+  <si>
+    <t>1712 Basic (TSTAUTO)</t>
+  </si>
+  <si>
+    <t>1712 Biller (TSTAUTO)</t>
+  </si>
+  <si>
+    <t>1712 Finance (TSTAUTO)</t>
+  </si>
+  <si>
+    <t>1712 HR (TSTAUTO)</t>
+  </si>
+  <si>
+    <t>1712 Management (TSTAUTO)</t>
+  </si>
+  <si>
+    <t>1712 Production (TSTAUTO)</t>
+  </si>
+  <si>
+    <t>1712 Project Manager (TSTAUTO)</t>
+  </si>
+  <si>
+    <t>1712 Senior Finance (TSTAUTO)</t>
   </si>
 </sst>
 </file>
@@ -3724,7 +3754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3793,7 +3823,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4214,8 +4243,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4225,26 +4254,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="74">
+      <c r="B1" s="73">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="95" t="s">
-        <v>362</v>
+      <c r="B2" s="94" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4283,7 +4312,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -4291,14 +4320,14 @@
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="65"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -4312,7 +4341,7 @@
       <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -4326,7 +4355,7 @@
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="54" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -4340,7 +4369,7 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -4352,10 +4381,10 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="66"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -4369,7 +4398,7 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="55" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -4384,7 +4413,7 @@
       <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="55" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -4398,10 +4427,10 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="100" t="s">
         <v>981</v>
       </c>
       <c r="C9" s="22"/>
@@ -4412,7 +4441,7 @@
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="55" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -4427,7 +4456,7 @@
       <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="55" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -4442,7 +4471,7 @@
       <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="55" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -4457,7 +4486,7 @@
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="55" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -4469,25 +4498,25 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="67"/>
+      <c r="I13" s="66"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>972</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="55" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -4501,22 +4530,22 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="63" t="s">
         <v>973</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="55" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -4528,10 +4557,10 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="50"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="55" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -4543,10 +4572,10 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="50"/>
+      <c r="I18" s="49"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="55" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -4560,22 +4589,22 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="57" t="s">
         <v>975</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="55" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -4590,7 +4619,7 @@
       <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="58" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -4621,7 +4650,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4632,55 +4661,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51">
+      <c r="B1" s="50">
         <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="51">
         <v>1307</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="51">
         <v>130710080</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -4688,7 +4717,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="51" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -4696,10 +4725,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="51">
         <v>1307</v>
       </c>
     </row>
@@ -4739,11 +4768,11 @@
       <c r="C1" s="19"/>
       <c r="D1" s="26"/>
       <c r="E1" s="31"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -4807,7 +4836,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="66"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -4860,7 +4889,7 @@
       <c r="A9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="100" t="s">
         <v>981</v>
       </c>
       <c r="C9" s="22"/>
@@ -4934,23 +4963,23 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="67"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>972</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
@@ -4972,17 +5001,17 @@
       <c r="A16" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="63" t="s">
         <v>973</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
@@ -4998,7 +5027,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -5014,7 +5043,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
@@ -5036,17 +5065,17 @@
       <c r="A20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="57" t="s">
         <v>975</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
@@ -5168,7 +5197,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -5176,7 +5205,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>201</v>
       </c>
       <c r="B2" s="16">
@@ -5184,7 +5213,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -5192,7 +5221,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -5200,7 +5229,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -5208,7 +5237,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5216,7 +5245,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="55" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -5224,7 +5253,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="55" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -5232,7 +5261,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="55" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -5240,7 +5269,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="55" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -5248,7 +5277,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="55" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -5256,7 +5285,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="55" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -5264,7 +5293,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="89" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -5298,62 +5327,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="51">
+      <c r="C1" s="50">
         <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="51">
         <v>1307</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="51">
         <v>1307</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -5364,7 +5393,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -5375,13 +5404,13 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="51">
         <v>1307</v>
       </c>
     </row>
@@ -5550,7 +5579,7 @@
       <c r="A2" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>983</v>
       </c>
     </row>
@@ -5558,7 +5587,7 @@
       <c r="A3" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5586,7 +5615,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31">
@@ -5636,7 +5665,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>239</v>
       </c>
       <c r="B1" t="s">
@@ -5699,7 +5728,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31"/>
@@ -5922,13 +5951,13 @@
       <c r="A2" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="60"/>
+      <c r="C2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -6054,7 +6083,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -6062,22 +6091,22 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>233</v>
       </c>
       <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="74" t="s">
         <v>120</v>
       </c>
       <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6105,7 +6134,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -6113,22 +6142,22 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>233</v>
       </c>
       <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="74" t="s">
         <v>120</v>
       </c>
       <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6392,18 +6421,18 @@
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A2" s="60">
+      <c r="A2" s="59">
         <v>1707</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>374</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59" t="s">
         <v>952</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6665,27 +6694,27 @@
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A2" s="60">
+      <c r="A2" s="59">
         <v>1707</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>374</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59" t="s">
         <v>952</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1712</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>374</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="59" t="s">
         <v>952</v>
       </c>
       <c r="E3" t="s">
@@ -6700,10 +6729,10 @@
       <c r="H3">
         <v>500</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="59" t="s">
         <v>951</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="59" t="s">
         <v>951</v>
       </c>
     </row>
@@ -6731,7 +6760,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -6739,10 +6768,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6768,7 +6797,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -6776,10 +6805,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>1035</v>
       </c>
     </row>
@@ -6850,7 +6879,7 @@
       <c r="A6" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="91">
         <v>43783</v>
       </c>
     </row>
@@ -6904,7 +6933,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="90" t="s">
         <v>67</v>
       </c>
       <c r="B1" s="30">
@@ -6975,7 +7004,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -7007,18 +7036,18 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="77" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="77" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="79" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7046,50 +7075,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="87" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="80" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="81" t="s">
         <v>273</v>
       </c>
     </row>
@@ -8299,50 +8328,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="82" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="88" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="88" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="54" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="83" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="84" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>266</v>
       </c>
     </row>
@@ -8423,13 +8452,13 @@
       <c r="A2">
         <v>1707</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>1032</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="59" t="s">
         <v>1032</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="59" t="s">
         <v>1031</v>
       </c>
       <c r="F2" t="s">
@@ -8459,7 +8488,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B1">
@@ -8470,10 +8499,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8498,7 +8527,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B1">
@@ -8506,10 +8535,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8554,7 +8583,7 @@
       <c r="A3" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8562,7 +8591,7 @@
       <c r="A4" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>361</v>
       </c>
     </row>
@@ -8591,10 +8620,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8671,7 +8700,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>239</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -8697,7 +8726,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>170</v>
       </c>
       <c r="B2" s="30">
@@ -8790,7 +8819,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>239</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -8822,7 +8851,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>170</v>
       </c>
       <c r="B2" s="30">
@@ -8879,7 +8908,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>239</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -8911,7 +8940,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>177</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -11021,10 +11050,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>346</v>
       </c>
     </row>
@@ -11100,10 +11129,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>346</v>
       </c>
     </row>
@@ -11308,16 +11337,16 @@
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>355</v>
       </c>
-      <c r="B2" s="93">
+      <c r="B2" s="92">
         <v>1319</v>
       </c>
-      <c r="C2" s="94">
+      <c r="C2" s="93">
         <v>131915</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="59">
         <v>1319200043</v>
       </c>
       <c r="E2" t="s">
@@ -11357,10 +11386,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="102">
+      <c r="B1" s="101">
         <v>1707</v>
       </c>
     </row>
@@ -11392,7 +11421,7 @@
       <c r="A5" t="s">
         <v>1040</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="59" t="s">
         <v>1041</v>
       </c>
     </row>
@@ -11400,7 +11429,7 @@
       <c r="A6" t="s">
         <v>1042</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>1041</v>
       </c>
     </row>
@@ -11424,7 +11453,7 @@
       <c r="A9" t="s">
         <v>1044</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="59" t="s">
         <v>1045</v>
       </c>
     </row>
@@ -11432,7 +11461,7 @@
       <c r="A10" t="s">
         <v>1046</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="59" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -11480,7 +11509,7 @@
       <c r="A16" t="s">
         <v>1024</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="100" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -11488,7 +11517,7 @@
       <c r="A17" t="s">
         <v>1023</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="59" t="s">
         <v>1070</v>
       </c>
     </row>
@@ -11598,10 +11627,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="102">
+      <c r="B1" s="101">
         <v>1707</v>
       </c>
     </row>
@@ -11609,7 +11638,7 @@
       <c r="A2" t="s">
         <v>984</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -11676,10 +11705,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="102">
+      <c r="B1" s="101">
         <v>1707</v>
       </c>
     </row>
@@ -11687,7 +11716,7 @@
       <c r="A2" t="s">
         <v>984</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -11703,7 +11732,7 @@
       <c r="A4" t="s">
         <v>985</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>1121</v>
       </c>
     </row>
@@ -11769,10 +11798,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="102">
+      <c r="B1" s="101">
         <v>1707</v>
       </c>
     </row>
@@ -11780,7 +11809,7 @@
       <c r="A2" t="s">
         <v>984</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>1123</v>
       </c>
     </row>
@@ -11805,7 +11834,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -11816,10 +11845,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="102">
+      <c r="B1" s="101">
         <v>1707</v>
       </c>
     </row>
@@ -11827,7 +11856,7 @@
       <c r="A2" t="s">
         <v>984</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>1123</v>
       </c>
     </row>
@@ -11843,7 +11872,7 @@
       <c r="A4" t="s">
         <v>985</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -11879,10 +11908,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="102">
+      <c r="B1" s="101">
         <v>1707</v>
       </c>
     </row>
@@ -11890,7 +11919,7 @@
       <c r="A2" t="s">
         <v>984</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="104" t="s">
         <v>994</v>
       </c>
     </row>
@@ -11898,7 +11927,7 @@
       <c r="A3" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>375</v>
       </c>
     </row>
@@ -11906,7 +11935,7 @@
       <c r="A4" t="s">
         <v>985</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>995</v>
       </c>
     </row>
@@ -11942,10 +11971,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>372</v>
       </c>
     </row>
@@ -11953,7 +11982,7 @@
       <c r="A2" t="s">
         <v>984</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="104" t="s">
         <v>994</v>
       </c>
     </row>
@@ -11961,7 +11990,7 @@
       <c r="A3" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>375</v>
       </c>
     </row>
@@ -12001,7 +12030,7 @@
       <c r="C1" s="2">
         <v>1712</v>
       </c>
-      <c r="D1" s="68"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12015,7 +12044,7 @@
         <v>1712</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="69"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -12184,7 +12213,7 @@
         <v>1015</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="70"/>
+      <c r="E15" s="69"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -12203,28 +12232,28 @@
       <c r="A17" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12250,10 +12279,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="102">
+      <c r="B1" s="101">
         <v>1707</v>
       </c>
     </row>
@@ -12277,7 +12306,7 @@
       <c r="A4" t="s">
         <v>985</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="105" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -12313,10 +12342,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="102">
+      <c r="B1" s="101">
         <v>1707</v>
       </c>
     </row>
@@ -12324,7 +12353,7 @@
       <c r="A2" t="s">
         <v>984</v>
       </c>
-      <c r="B2" s="106">
+      <c r="B2" s="105">
         <v>103132</v>
       </c>
     </row>
@@ -12340,7 +12369,7 @@
       <c r="A4" t="s">
         <v>997</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="105" t="s">
         <v>998</v>
       </c>
     </row>
@@ -12376,7 +12405,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>239</v>
       </c>
       <c r="B1">
@@ -12403,7 +12432,7 @@
       <c r="A4" t="s">
         <v>1003</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="103" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -12466,7 +12495,7 @@
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="100" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -12522,7 +12551,7 @@
       <c r="A11" t="s">
         <v>1086</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="59" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -12530,7 +12559,7 @@
       <c r="A12" t="s">
         <v>1087</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="59" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -12586,7 +12615,7 @@
       <c r="A19" t="s">
         <v>1097</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="59" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -12737,7 +12766,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>239</v>
       </c>
       <c r="B1">
@@ -12764,7 +12793,7 @@
       <c r="A4" t="s">
         <v>990</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="103" t="s">
         <v>991</v>
       </c>
     </row>
@@ -12790,7 +12819,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12801,213 +12830,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="38">
+      <c r="B1" s="37">
         <v>1707</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="C1" s="37">
+        <v>1712</v>
+      </c>
+      <c r="D1" s="37"/>
       <c r="E1" s="26"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="95" t="s">
         <v>942</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="95" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="95" t="s">
         <v>943</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
+      <c r="C3" s="95" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="95" t="s">
         <v>944</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="C4" s="95" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="95" t="s">
         <v>945</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="C5" s="95" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="95" t="s">
         <v>362</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="C6" s="95" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>946</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="C7" s="95" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="95" t="s">
         <v>947</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="C8" s="95" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="95" t="s">
         <v>948</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="C9" s="95" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="95" t="s">
         <v>949</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="C10" s="95" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="96" t="s">
         <v>950</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="C11" s="96" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13023,7 +13074,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13033,15 +13084,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="98" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="95" t="s">
         <v>168</v>
       </c>
       <c r="B2" s="34" t="s">
@@ -13049,7 +13100,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="95" t="s">
         <v>169</v>
       </c>
       <c r="B3" s="34" t="s">
@@ -13057,7 +13108,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="95" t="s">
         <v>171</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -13065,7 +13116,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="95" t="s">
         <v>172</v>
       </c>
       <c r="B5" s="34" t="s">
@@ -13073,7 +13124,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>173</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -13081,7 +13132,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="95" t="s">
         <v>174</v>
       </c>
       <c r="B7" s="34" t="s">
@@ -13089,7 +13140,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="95" t="s">
         <v>175</v>
       </c>
       <c r="B8" s="34" t="s">
@@ -13097,7 +13148,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="95" t="s">
         <v>176</v>
       </c>
       <c r="B9" s="34" t="s">
@@ -13105,7 +13156,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="95" t="s">
         <v>178</v>
       </c>
       <c r="B10" s="34" t="s">
@@ -13113,7 +13164,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="95" t="s">
         <v>179</v>
       </c>
       <c r="B11" s="34" t="s">
@@ -13121,7 +13172,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="95" t="s">
         <v>180</v>
       </c>
       <c r="B12" s="34" t="s">
@@ -13129,7 +13180,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="95" t="s">
         <v>182</v>
       </c>
       <c r="B13" s="34" t="s">
@@ -13137,7 +13188,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="95" t="s">
         <v>183</v>
       </c>
       <c r="B14" s="34" t="s">
@@ -13145,10 +13196,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="99" t="s">
         <v>967</v>
       </c>
     </row>
@@ -13171,130 +13222,130 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="50" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="49" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>195</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13547,10 +13598,10 @@
       <c r="A2">
         <v>1707</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>982</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>368</v>
       </c>
       <c r="D2" t="s">
@@ -13822,7 +13873,7 @@
       <c r="A2">
         <v>1307</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>229</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -13860,7 +13911,7 @@
       <c r="A3">
         <v>1284</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>205</v>
       </c>
       <c r="C3" t="s">
@@ -13898,7 +13949,7 @@
       <c r="A4">
         <v>1205</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>212</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -13955,7 +14006,7 @@
       <c r="A2" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>1034</v>
       </c>
     </row>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="51" activeTab="55"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -4243,8 +4243,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4266,7 +4266,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>958</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5761,7 +5761,7 @@
   </sheetPr>
   <dimension ref="A1:FK22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -12819,7 +12819,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13073,7 +13073,7 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="51" activeTab="55"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="43" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -3042,9 +3042,6 @@
     <t>Brand Name</t>
   </si>
   <si>
-    <t>Radisson GRT</t>
-  </si>
-  <si>
     <t>Company</t>
   </si>
   <si>
@@ -3156,12 +3153,6 @@
     <t>E-mail</t>
   </si>
   <si>
-    <t>Radisson Bengaluru Citi Centre</t>
-  </si>
-  <si>
-    <t>No.2  Ward No.81</t>
-  </si>
-  <si>
     <t>POS</t>
   </si>
   <si>
@@ -3318,9 +3309,6 @@
     <t>Amended Global Client No</t>
   </si>
   <si>
-    <t>No.2  Ward No.83</t>
-  </si>
-  <si>
     <t>Amended Global Brand No</t>
   </si>
   <si>
@@ -3481,6 +3469,18 @@
   </si>
   <si>
     <t>1712 Senior Finance (TSTAUTO)</t>
+  </si>
+  <si>
+    <t>No.2  Ward No.84</t>
+  </si>
+  <si>
+    <t>AutomUserEmail@gmail.com</t>
+  </si>
+  <si>
+    <t>Radisson Bengaluru Citi</t>
+  </si>
+  <si>
+    <t>AutoGlobalBrand 26February2020 15:15:49</t>
   </si>
 </sst>
 </file>
@@ -6001,57 +6001,57 @@
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="12" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="13" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="14" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="15" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -6237,7 +6237,7 @@
         <v>197</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>127</v>
@@ -6510,7 +6510,7 @@
         <v>197</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>127</v>
@@ -6718,10 +6718,10 @@
         <v>952</v>
       </c>
       <c r="E3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F3" t="s">
         <v>1018</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1019</v>
       </c>
       <c r="G3">
         <v>25</v>
@@ -6809,7 +6809,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
   </sheetData>
@@ -8453,16 +8453,16 @@
         <v>1707</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="F2" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -11398,39 +11398,39 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B4" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11446,23 +11446,23 @@
         <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11475,18 +11475,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B12" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B13" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -11494,36 +11494,36 @@
         <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B15" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B18">
         <v>17079905</v>
@@ -11534,44 +11534,44 @@
         <v>238</v>
       </c>
       <c r="B19" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B20" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B21" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B23" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B24">
         <v>33</v>
@@ -11579,15 +11579,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B25" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B26">
         <v>464576457</v>
@@ -11595,7 +11595,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B27">
         <v>34576457</v>
@@ -11617,8 +11617,8 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11639,7 +11639,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11652,38 +11652,41 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B4" t="s">
-        <v>1026</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1054</v>
+        <v>1023</v>
+      </c>
+      <c r="B8" s="100" t="s">
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11695,7 +11698,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11717,7 +11720,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11733,7 +11736,7 @@
         <v>985</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11741,38 +11744,38 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1025</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B6" t="s">
-        <v>1079</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B10" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
@@ -11810,7 +11813,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11835,7 +11838,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11857,7 +11860,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11873,7 +11876,7 @@
         <v>985</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11881,7 +11884,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>987</v>
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
@@ -11920,7 +11923,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11936,7 +11939,7 @@
         <v>985</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11944,7 +11947,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -11983,7 +11986,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12051,10 +12054,10 @@
         <v>54</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>1005</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1006</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -12077,10 +12080,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -12090,10 +12093,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -12132,7 +12135,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -12145,7 +12148,7 @@
         <v>364</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="8"/>
@@ -12158,7 +12161,7 @@
         <v>217</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -12171,7 +12174,7 @@
         <v>365</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="8"/>
@@ -12181,10 +12184,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -12194,10 +12197,10 @@
         <v>58</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="32"/>
@@ -12207,10 +12210,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="69"/>
@@ -12223,7 +12226,7 @@
         <v>366</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
@@ -12307,7 +12310,7 @@
         <v>985</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12315,7 +12318,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -12367,18 +12370,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B4" s="105" t="s">
         <v>997</v>
-      </c>
-      <c r="B4" s="105" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>998</v>
+      </c>
+      <c r="B5" t="s">
         <v>999</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -12414,7 +12417,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B2">
         <v>1707</v>
@@ -12430,10 +12433,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="103" t="s">
         <v>1003</v>
-      </c>
-      <c r="B4" s="103" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12480,15 +12483,15 @@
         <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B3" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12496,12 +12499,12 @@
         <v>29</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B5">
         <v>9683254705</v>
@@ -12517,15 +12520,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B7" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B8">
         <v>6000056</v>
@@ -12533,10 +12536,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B9" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12549,90 +12552,90 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B13" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B14" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="B15" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="B16" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B17" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B18" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="B20" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B21" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -12640,44 +12643,44 @@
         <v>235</v>
       </c>
       <c r="B22" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B23" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B24" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="B25" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B26" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B27">
         <v>3000</v>
@@ -12685,7 +12688,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B28">
         <v>300000</v>
@@ -12693,47 +12696,47 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B29" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B30" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B31" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="B32" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B33" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="B34" t="s">
         <v>313</v>
@@ -12775,7 +12778,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B2">
         <v>1707</v>
@@ -12783,7 +12786,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B3">
         <v>107444</v>
@@ -12791,10 +12794,10 @@
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B4" s="103" t="s">
         <v>990</v>
-      </c>
-      <c r="B4" s="103" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12858,7 +12861,7 @@
         <v>942</v>
       </c>
       <c r="C2" s="95" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -12879,7 +12882,7 @@
         <v>943</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -12900,7 +12903,7 @@
         <v>944</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -12921,7 +12924,7 @@
         <v>945</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -12942,7 +12945,7 @@
         <v>362</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -12963,7 +12966,7 @@
         <v>946</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -12984,7 +12987,7 @@
         <v>947</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -13005,7 +13008,7 @@
         <v>948</v>
       </c>
       <c r="C9" s="95" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -13026,7 +13029,7 @@
         <v>949</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -13047,7 +13050,7 @@
         <v>950</v>
       </c>
       <c r="C11" s="96" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
@@ -13073,7 +13076,7 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -13646,7 +13649,7 @@
         <v>1712</v>
       </c>
       <c r="C3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
@@ -13667,10 +13670,10 @@
         <v>998312</v>
       </c>
       <c r="J3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K3" t="s">
         <v>1018</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -14007,7 +14010,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -14015,7 +14018,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="43" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="42" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1135">
   <si>
     <t>Description</t>
   </si>
@@ -3474,13 +3474,16 @@
     <t>No.2  Ward No.84</t>
   </si>
   <si>
-    <t>AutomUserEmail@gmail.com</t>
-  </si>
-  <si>
     <t>Radisson Bengaluru Citi</t>
   </si>
   <si>
     <t>AutoGlobalBrand 26February2020 15:15:49</t>
+  </si>
+  <si>
+    <t>No.2  Ward No.89</t>
+  </si>
+  <si>
+    <t>AutomUseroneEmail@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -11618,7 +11621,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11655,7 +11658,7 @@
         <v>1019</v>
       </c>
       <c r="B4" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11678,7 +11681,7 @@
         <v>1023</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
     </row>
   </sheetData>
@@ -11744,7 +11747,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11838,7 +11841,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11884,7 +11887,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
   </sheetData>
@@ -13077,7 +13080,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -3480,10 +3480,10 @@
     <t>AutoGlobalBrand 26February2020 15:15:49</t>
   </si>
   <si>
-    <t>No.2  Ward No.89</t>
-  </si>
-  <si>
-    <t>AutomUseroneEmail@gmail.com</t>
+    <t>No.2  Ward No.86</t>
+  </si>
+  <si>
+    <t>AutoUseroneEmail@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -11621,7 +11621,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="42" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="42" activeTab="44"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -3474,9 +3474,6 @@
     <t>No.2  Ward No.84</t>
   </si>
   <si>
-    <t>Radisson Bengaluru Citi</t>
-  </si>
-  <si>
     <t>AutoGlobalBrand 26February2020 15:15:49</t>
   </si>
   <si>
@@ -3484,6 +3481,9 @@
   </si>
   <si>
     <t>AutoUseroneEmail@gmail.com</t>
+  </si>
+  <si>
+    <t>1707_AutoClient 27February2020 09:17:32</t>
   </si>
 </sst>
 </file>
@@ -11620,8 +11620,8 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11658,7 +11658,7 @@
         <v>1019</v>
       </c>
       <c r="B4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11681,7 +11681,7 @@
         <v>1023</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
@@ -11700,8 +11700,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11747,7 +11747,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11887,7 +11887,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="42" activeTab="44"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="49" activeTab="52"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1136">
   <si>
     <t>Description</t>
   </si>
@@ -3426,9 +3426,6 @@
     <t>AutomationVendorTest1</t>
   </si>
   <si>
-    <t>586294318</t>
-  </si>
-  <si>
     <t>107758</t>
   </si>
   <si>
@@ -3471,9 +3468,6 @@
     <t>1712 Senior Finance (TSTAUTO)</t>
   </si>
   <si>
-    <t>No.2  Ward No.84</t>
-  </si>
-  <si>
     <t>AutoGlobalBrand 26February2020 15:15:49</t>
   </si>
   <si>
@@ -3483,7 +3477,16 @@
     <t>AutoUseroneEmail@gmail.com</t>
   </si>
   <si>
-    <t>1707_AutoClient 27February2020 09:17:32</t>
+    <t>AutoGlobalBrand 27February2020 09:17:32</t>
+  </si>
+  <si>
+    <t>AutomoneEmail@gmail.com</t>
+  </si>
+  <si>
+    <t>No.2  Ward No.89</t>
+  </si>
+  <si>
+    <t>586296666</t>
   </si>
 </sst>
 </file>
@@ -11621,7 +11624,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11642,7 +11645,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11658,7 +11661,7 @@
         <v>1019</v>
       </c>
       <c r="B4" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11681,7 +11684,7 @@
         <v>1023</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
@@ -11700,7 +11703,7 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -11723,7 +11726,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11739,7 +11742,7 @@
         <v>985</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11747,7 +11750,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11755,7 +11758,7 @@
         <v>1019</v>
       </c>
       <c r="B6" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11777,13 +11780,16 @@
       <c r="A10" t="s">
         <v>1023</v>
       </c>
-      <c r="B10" t="s">
-        <v>1051</v>
+      <c r="B10" s="100" t="s">
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11816,7 +11822,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11863,7 +11869,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11879,7 +11885,7 @@
         <v>985</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11887,7 +11893,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
   </sheetData>
@@ -12463,8 +12469,8 @@
   </sheetPr>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12558,7 +12564,7 @@
         <v>1082</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>1115</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12566,7 +12572,7 @@
         <v>1083</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1115</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -12864,7 +12870,7 @@
         <v>942</v>
       </c>
       <c r="C2" s="95" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -12885,7 +12891,7 @@
         <v>943</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -12906,7 +12912,7 @@
         <v>944</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -12927,7 +12933,7 @@
         <v>945</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -12948,7 +12954,7 @@
         <v>362</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -12969,7 +12975,7 @@
         <v>946</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -12990,7 +12996,7 @@
         <v>947</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -13011,7 +13017,7 @@
         <v>948</v>
       </c>
       <c r="C9" s="95" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -13032,7 +13038,7 @@
         <v>949</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -13053,7 +13059,7 @@
         <v>950</v>
       </c>
       <c r="C11" s="96" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="49" activeTab="52"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1135">
   <si>
     <t>Description</t>
   </si>
@@ -3469,9 +3469,6 @@
   </si>
   <si>
     <t>AutoGlobalBrand 26February2020 15:15:49</t>
-  </si>
-  <si>
-    <t>No.2  Ward No.86</t>
   </si>
   <si>
     <t>AutoUseroneEmail@gmail.com</t>
@@ -11623,13 +11620,14 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11661,7 +11659,7 @@
         <v>1019</v>
       </c>
       <c r="B4" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11684,7 +11682,7 @@
         <v>1023</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -11750,7 +11748,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11758,7 +11756,7 @@
         <v>1019</v>
       </c>
       <c r="B6" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11781,7 +11779,7 @@
         <v>1023</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
   </sheetData>
@@ -11807,6 +11805,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11853,7 +11852,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12469,7 +12468,7 @@
   </sheetPr>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -12564,7 +12563,7 @@
         <v>1082</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12572,7 +12571,7 @@
         <v>1083</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="44"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1136">
   <si>
     <t>Description</t>
   </si>
@@ -3480,10 +3480,13 @@
     <t>AutomoneEmail@gmail.com</t>
   </si>
   <si>
-    <t>No.2  Ward No.89</t>
-  </si>
-  <si>
     <t>586296666</t>
+  </si>
+  <si>
+    <t>No.2  Ward No.84576</t>
+  </si>
+  <si>
+    <t>No.2  Ward No.89234</t>
   </si>
 </sst>
 </file>
@@ -11620,8 +11623,8 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11659,7 +11662,7 @@
         <v>1019</v>
       </c>
       <c r="B4" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11701,14 +11704,14 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11756,7 +11759,7 @@
         <v>1019</v>
       </c>
       <c r="B6" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12563,7 +12566,7 @@
         <v>1082</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12571,7 +12574,7 @@
         <v>1083</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="44"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="43" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -3471,9 +3471,6 @@
     <t>AutoGlobalBrand 26February2020 15:15:49</t>
   </si>
   <si>
-    <t>AutoUseroneEmail@gmail.com</t>
-  </si>
-  <si>
     <t>AutoGlobalBrand 27February2020 09:17:32</t>
   </si>
   <si>
@@ -3483,10 +3480,13 @@
     <t>586296666</t>
   </si>
   <si>
-    <t>No.2  Ward No.84576</t>
-  </si>
-  <si>
-    <t>No.2  Ward No.89234</t>
+    <t>No.2  Ward No.8567</t>
+  </si>
+  <si>
+    <t>AutoUseroneeEmail@gmail.com</t>
+  </si>
+  <si>
+    <t>No.2  Ward No.83343</t>
   </si>
 </sst>
 </file>
@@ -11623,8 +11623,8 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11662,7 +11662,7 @@
         <v>1019</v>
       </c>
       <c r="B4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11685,7 +11685,7 @@
         <v>1023</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
     </row>
   </sheetData>
@@ -11704,8 +11704,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11751,7 +11751,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11782,7 +11782,7 @@
         <v>1023</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
@@ -12566,7 +12566,7 @@
         <v>1082</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12574,7 +12574,7 @@
         <v>1083</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -13088,7 +13088,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="43" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="43" activeTab="45"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -11623,8 +11623,8 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11705,7 +11705,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11801,8 +11801,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11824,7 +11824,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11849,7 +11849,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="43" activeTab="45"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1137">
   <si>
     <t>Description</t>
   </si>
@@ -3420,12 +3420,6 @@
     <t>WHMethod</t>
   </si>
   <si>
-    <t>Automationvendor1@yahoo.com</t>
-  </si>
-  <si>
-    <t>AutomationVendorTest1</t>
-  </si>
-  <si>
     <t>107758</t>
   </si>
   <si>
@@ -3477,16 +3471,25 @@
     <t>AutomoneEmail@gmail.com</t>
   </si>
   <si>
-    <t>586296666</t>
-  </si>
-  <si>
-    <t>No.2  Ward No.8567</t>
-  </si>
-  <si>
-    <t>AutoUseroneeEmail@gmail.com</t>
-  </si>
-  <si>
     <t>No.2  Ward No.83343</t>
+  </si>
+  <si>
+    <t>8796504345</t>
+  </si>
+  <si>
+    <t>GlobalVendor</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>Automationglobalvendor@yahoo.com</t>
+  </si>
+  <si>
+    <t>No.2  Ward No.4545</t>
+  </si>
+  <si>
+    <t>AutoUseroneEmail@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -4249,8 +4252,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4272,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>362</v>
+        <v>958</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11624,7 +11627,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11646,7 +11649,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11662,7 +11665,7 @@
         <v>1019</v>
       </c>
       <c r="B4" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11685,7 +11688,7 @@
         <v>1023</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
@@ -11727,7 +11730,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11743,7 +11746,7 @@
         <v>985</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11751,7 +11754,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11759,7 +11762,7 @@
         <v>1019</v>
       </c>
       <c r="B6" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11782,7 +11785,7 @@
         <v>1023</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
   </sheetData>
@@ -11801,8 +11804,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11824,7 +11827,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11871,7 +11874,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11887,7 +11890,7 @@
         <v>985</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11895,7 +11898,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
   </sheetData>
@@ -12471,8 +12474,8 @@
   </sheetPr>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12510,7 +12513,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>1113</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12534,7 +12537,7 @@
         <v>1002</v>
       </c>
       <c r="B7" t="s">
-        <v>1114</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -12566,7 +12569,7 @@
         <v>1082</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12574,7 +12577,7 @@
         <v>1083</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -12606,7 +12609,7 @@
         <v>1089</v>
       </c>
       <c r="B16" t="s">
-        <v>1114</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -12833,7 +12836,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12872,7 +12875,7 @@
         <v>942</v>
       </c>
       <c r="C2" s="95" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -12893,7 +12896,7 @@
         <v>943</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -12914,7 +12917,7 @@
         <v>944</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -12935,7 +12938,7 @@
         <v>945</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -12956,7 +12959,7 @@
         <v>362</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -12977,7 +12980,7 @@
         <v>946</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -12998,7 +13001,7 @@
         <v>947</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -13019,7 +13022,7 @@
         <v>948</v>
       </c>
       <c r="C9" s="95" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -13040,7 +13043,7 @@
         <v>949</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -13061,7 +13064,7 @@
         <v>950</v>
       </c>
       <c r="C11" s="96" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -4253,7 +4253,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4275,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>958</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11627,7 +11627,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="42" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -3486,10 +3486,10 @@
     <t>Automationglobalvendor@yahoo.com</t>
   </si>
   <si>
-    <t>No.2  Ward No.4545</t>
-  </si>
-  <si>
-    <t>AutoUseroneEmail@gmail.com</t>
+    <t>No.2  Ward No.8556</t>
+  </si>
+  <si>
+    <t>AutoUseroneEmailone@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -4252,7 +4252,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -11626,8 +11626,8 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -3486,10 +3486,10 @@
     <t>Automationglobalvendor@yahoo.com</t>
   </si>
   <si>
-    <t>No.2  Ward No.8556</t>
-  </si>
-  <si>
     <t>AutoUseroneEmailone@gmail.com</t>
+  </si>
+  <si>
+    <t>No.2  Ward No.8456</t>
   </si>
 </sst>
 </file>
@@ -11627,7 +11627,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11665,7 +11665,7 @@
         <v>1019</v>
       </c>
       <c r="B4" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11688,7 +11688,7 @@
         <v>1023</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_IND_CRITICAL_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\662494\Pictures\Test_Environment_25-2-2020\GlobalTestSuiteAutomation\WppRegpack\TestResource\Critical_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Critical_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="42" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="1144">
   <si>
     <t>Description</t>
   </si>
@@ -3312,9 +3312,6 @@
     <t>Amended Global Brand No</t>
   </si>
   <si>
-    <t>3543224601</t>
-  </si>
-  <si>
     <t>12 1st cross street</t>
   </si>
   <si>
@@ -3490,6 +3487,30 @@
   </si>
   <si>
     <t>No.2  Ward No.8456</t>
+  </si>
+  <si>
+    <t>1707105271</t>
+  </si>
+  <si>
+    <t>3543224602</t>
+  </si>
+  <si>
+    <t>107762</t>
+  </si>
+  <si>
+    <t>1707_AutoClient 04March2020 16:24:02</t>
+  </si>
+  <si>
+    <t>107762001</t>
+  </si>
+  <si>
+    <t>AutoGlobalBrand 04March2020 16:24:02</t>
+  </si>
+  <si>
+    <t>107762001001</t>
+  </si>
+  <si>
+    <t>AutoGlobalProduct 04March2020 16:24:02</t>
   </si>
 </sst>
 </file>
@@ -4253,7 +4274,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5771,7 +5792,7 @@
   <dimension ref="A1:FK22"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5960,6 +5981,9 @@
       <c r="A2" s="30" t="s">
         <v>197</v>
       </c>
+      <c r="B2" s="30" t="s">
+        <v>1136</v>
+      </c>
       <c r="C2" s="59"/>
       <c r="E2" s="59"/>
       <c r="F2" s="60"/>
@@ -6012,11 +6036,17 @@
       <c r="A11" s="30" t="s">
         <v>991</v>
       </c>
+      <c r="B11" s="30" t="s">
+        <v>1140</v>
+      </c>
     </row>
     <row r="12" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>992</v>
       </c>
+      <c r="B12" s="30" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="13" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
@@ -6027,43 +6057,67 @@
       <c r="A14" s="30" t="s">
         <v>1069</v>
       </c>
+      <c r="B14" s="30" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="15" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>1070</v>
       </c>
+      <c r="B15" s="30" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="30" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="30" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="30" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="30" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="30" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="30" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>218</v>
       </c>
@@ -11384,8 +11438,8 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11471,7 +11525,7 @@
         <v>1043</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>1077</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11626,7 +11680,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -11649,7 +11703,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11665,7 +11719,7 @@
         <v>1019</v>
       </c>
       <c r="B4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11688,7 +11742,7 @@
         <v>1023</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
   </sheetData>
@@ -11730,7 +11784,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11746,7 +11800,7 @@
         <v>985</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11754,7 +11808,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11762,7 +11816,7 @@
         <v>1019</v>
       </c>
       <c r="B6" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11785,7 +11839,7 @@
         <v>1023</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
   </sheetData>
@@ -11827,7 +11881,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11874,7 +11928,7 @@
         <v>984</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11890,7 +11944,7 @@
         <v>985</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11898,7 +11952,7 @@
         <v>986</v>
       </c>
       <c r="B5" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
@@ -12024,8 +12078,8 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12505,7 +12559,7 @@
         <v>1035</v>
       </c>
       <c r="B3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12513,7 +12567,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12537,12 +12591,12 @@
         <v>1002</v>
       </c>
       <c r="B7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B8">
         <v>6000056</v>
@@ -12550,10 +12604,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B9" t="s">
         <v>1080</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12566,26 +12620,26 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B13" t="s">
         <v>1084</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12593,63 +12647,63 @@
         <v>1046</v>
       </c>
       <c r="B14" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B15" t="s">
         <v>1087</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B16" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B17" t="s">
         <v>1090</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B18" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B19" s="59" t="s">
         <v>1093</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B20" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B21" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -12662,7 +12716,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B23" t="s">
         <v>1055</v>
@@ -12670,31 +12724,31 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B24" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B25" t="s">
         <v>1099</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B26" t="s">
         <v>1101</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B27">
         <v>3000</v>
@@ -12702,7 +12756,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B28">
         <v>300000</v>
@@ -12710,7 +12764,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B29" t="s">
         <v>1001</v>
@@ -12718,15 +12772,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B30" t="s">
         <v>1106</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B31" t="s">
         <v>1064</v>
@@ -12734,23 +12788,23 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B32" t="s">
         <v>1109</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B33" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B34" t="s">
         <v>313</v>
@@ -12875,7 +12929,7 @@
         <v>942</v>
       </c>
       <c r="C2" s="95" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -12896,7 +12950,7 @@
         <v>943</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -12917,7 +12971,7 @@
         <v>944</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -12938,7 +12992,7 @@
         <v>945</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -12959,7 +13013,7 @@
         <v>362</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -12980,7 +13034,7 @@
         <v>946</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -13001,7 +13055,7 @@
         <v>947</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -13022,7 +13076,7 @@
         <v>948</v>
       </c>
       <c r="C9" s="95" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -13043,7 +13097,7 @@
         <v>949</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -13064,7 +13118,7 @@
         <v>950</v>
       </c>
       <c r="C11" s="96" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
